--- a/file/调度平台设计.xlsx
+++ b/file/调度平台设计.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\kedaProject\WCS_INTEGRATE\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746553F2-154D-41A3-A48E-1063FD20F1A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB972A3F-E6EA-4C7F-AD68-B3D7A7A1258B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="930">
   <si>
     <t>日期</t>
   </si>
@@ -3339,6 +3339,34 @@
   </si>
   <si>
     <t>GoodLevel</t>
+  </si>
+  <si>
+    <t>A班</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>B班</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpShiftTime</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>上砖班次</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>下砖班次</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>DownShiftTime</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>06:30</t>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4227,7 +4255,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
@@ -4652,36 +4680,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4703,8 +4701,44 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -23260,10 +23294,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:M92"/>
+  <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83:E92"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23512,6 +23546,58 @@
         <v>100</v>
       </c>
     </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C11" s="25">
+        <v>11</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0</v>
+      </c>
+      <c r="E11" s="25">
+        <v>2</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>926</v>
+      </c>
+      <c r="G11" s="25">
+        <v>1</v>
+      </c>
+      <c r="H11" s="25">
+        <v>1</v>
+      </c>
+      <c r="I11" s="25">
+        <v>1</v>
+      </c>
+      <c r="J11" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C12" s="25">
+        <v>12</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0</v>
+      </c>
+      <c r="E12" s="25">
+        <v>2</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>927</v>
+      </c>
+      <c r="G12" s="25">
+        <v>1</v>
+      </c>
+      <c r="H12" s="25">
+        <v>1</v>
+      </c>
+      <c r="I12" s="25">
+        <v>1</v>
+      </c>
+      <c r="J12" s="25">
+        <v>10</v>
+      </c>
+    </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>27</v>
@@ -24748,7 +24834,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C83">
         <v>101</v>
       </c>
@@ -24765,7 +24851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C84">
         <v>102</v>
       </c>
@@ -24782,7 +24868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C85">
         <v>103</v>
       </c>
@@ -24799,7 +24885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C86">
         <v>104</v>
       </c>
@@ -24816,7 +24902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C87">
         <v>105</v>
       </c>
@@ -24833,7 +24919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C88">
         <v>106</v>
       </c>
@@ -24850,7 +24936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C89">
         <v>107</v>
       </c>
@@ -24867,7 +24953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C90">
         <v>108</v>
       </c>
@@ -24884,7 +24970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C91">
         <v>109</v>
       </c>
@@ -24901,7 +24987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C92">
         <v>110</v>
       </c>
@@ -24916,6 +25002,74 @@
       </c>
       <c r="G92">
         <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C95">
+        <v>120</v>
+      </c>
+      <c r="D95">
+        <v>11</v>
+      </c>
+      <c r="E95" t="s">
+        <v>925</v>
+      </c>
+      <c r="F95" t="s">
+        <v>923</v>
+      </c>
+      <c r="I95" s="189" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="96" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C96">
+        <v>121</v>
+      </c>
+      <c r="D96">
+        <v>11</v>
+      </c>
+      <c r="E96" t="s">
+        <v>925</v>
+      </c>
+      <c r="F96" t="s">
+        <v>924</v>
+      </c>
+      <c r="I96" s="188">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="97" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C97">
+        <v>125</v>
+      </c>
+      <c r="D97">
+        <v>12</v>
+      </c>
+      <c r="E97" t="s">
+        <v>928</v>
+      </c>
+      <c r="F97" t="s">
+        <v>923</v>
+      </c>
+      <c r="I97" s="189" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="98" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C98">
+        <v>126</v>
+      </c>
+      <c r="D98">
+        <v>12</v>
+      </c>
+      <c r="E98" t="s">
+        <v>928</v>
+      </c>
+      <c r="F98" t="s">
+        <v>924</v>
+      </c>
+      <c r="I98" s="188">
+        <v>0.77083333333333337</v>
       </c>
     </row>
   </sheetData>
@@ -24929,7 +25083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF12AF46-9F25-4499-9F6C-A9732178A698}">
   <dimension ref="B1:J159"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A35" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -28685,16 +28839,16 @@
       <c r="J5" s="140"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="176" t="s">
+      <c r="B6" s="177" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="170">
+      <c r="C6" s="183">
         <v>7</v>
       </c>
-      <c r="D6" s="170">
+      <c r="D6" s="183">
         <v>700</v>
       </c>
-      <c r="E6" s="170">
+      <c r="E6" s="183">
         <v>400</v>
       </c>
       <c r="F6" s="122">
@@ -28711,10 +28865,10 @@
       <c r="J6" s="141"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="177"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="171"/>
+      <c r="B7" s="178"/>
+      <c r="C7" s="184"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
       <c r="F7" s="122">
         <v>800</v>
       </c>
@@ -28729,10 +28883,10 @@
       <c r="J7" s="141"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="177"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
       <c r="F8" s="122">
         <v>900</v>
       </c>
@@ -28747,10 +28901,10 @@
       <c r="J8" s="141"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="178"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="185"/>
       <c r="F9" s="122">
         <v>1200</v>
       </c>
@@ -28767,16 +28921,16 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="176" t="s">
+      <c r="B10" s="177" t="s">
         <v>191</v>
       </c>
-      <c r="C10" s="170">
+      <c r="C10" s="183">
         <v>7</v>
       </c>
-      <c r="D10" s="170">
+      <c r="D10" s="183">
         <v>900</v>
       </c>
-      <c r="E10" s="170">
+      <c r="E10" s="183">
         <v>500</v>
       </c>
       <c r="F10" s="122">
@@ -28793,10 +28947,10 @@
       <c r="J10" s="141"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="177"/>
-      <c r="C11" s="171"/>
-      <c r="D11" s="171"/>
-      <c r="E11" s="171"/>
+      <c r="B11" s="178"/>
+      <c r="C11" s="184"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
       <c r="F11" s="122">
         <v>1200</v>
       </c>
@@ -28811,10 +28965,10 @@
       <c r="J11" s="141"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="179"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="173"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="186"/>
+      <c r="E12" s="186"/>
       <c r="F12" s="125">
         <v>1600</v>
       </c>
@@ -28831,16 +28985,16 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="174" t="s">
+      <c r="B13" s="181" t="s">
         <v>194</v>
       </c>
-      <c r="C13" s="174">
+      <c r="C13" s="181">
         <v>10</v>
       </c>
-      <c r="D13" s="174">
+      <c r="D13" s="181">
         <v>700</v>
       </c>
-      <c r="E13" s="174">
+      <c r="E13" s="181">
         <v>250</v>
       </c>
       <c r="F13" s="128">
@@ -28857,10 +29011,10 @@
       <c r="J13" s="129"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="175"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="175"/>
-      <c r="E14" s="175"/>
+      <c r="B14" s="182"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="182"/>
+      <c r="E14" s="182"/>
       <c r="F14" s="22">
         <v>800</v>
       </c>
@@ -28876,10 +29030,10 @@
       <c r="K14"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="175"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
+      <c r="B15" s="182"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
       <c r="F15" s="22">
         <v>600</v>
       </c>
@@ -29098,7 +29252,7 @@
       <c r="E30" s="130"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="180" t="s">
+      <c r="A31" s="170" t="s">
         <v>182</v>
       </c>
       <c r="B31" s="131" t="s">
@@ -29113,7 +29267,7 @@
       <c r="I31" s="143"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="181"/>
+      <c r="A32" s="171"/>
       <c r="B32" s="21" t="s">
         <v>210</v>
       </c>
@@ -29126,7 +29280,7 @@
       <c r="I32" s="144"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="181"/>
+      <c r="A33" s="171"/>
       <c r="B33" s="21" t="s">
         <v>211</v>
       </c>
@@ -29139,7 +29293,7 @@
       <c r="I33" s="144"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="182"/>
+      <c r="A34" s="172"/>
       <c r="B34" s="135" t="s">
         <v>212</v>
       </c>
@@ -29164,7 +29318,7 @@
       <c r="E36" s="130"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="183" t="s">
+      <c r="A37" s="173" t="s">
         <v>184</v>
       </c>
       <c r="B37" s="21" t="s">
@@ -29180,7 +29334,7 @@
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="183"/>
+      <c r="A38" s="173"/>
       <c r="B38" s="138" t="s">
         <v>214</v>
       </c>
@@ -29194,7 +29348,7 @@
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="183"/>
+      <c r="A39" s="173"/>
       <c r="B39" s="21" t="s">
         <v>215</v>
       </c>
@@ -29208,7 +29362,7 @@
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="183"/>
+      <c r="A40" s="173"/>
       <c r="B40" s="21" t="s">
         <v>216</v>
       </c>
@@ -29234,7 +29388,7 @@
       <c r="E42" s="130"/>
     </row>
     <row r="43" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="184" t="s">
+      <c r="A43" s="174" t="s">
         <v>186</v>
       </c>
       <c r="B43" s="21" t="s">
@@ -29252,7 +29406,7 @@
       <c r="L43" s="5"/>
     </row>
     <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="185"/>
+      <c r="A44" s="175"/>
       <c r="B44" s="21" t="s">
         <v>218</v>
       </c>
@@ -29268,7 +29422,7 @@
       <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="185"/>
+      <c r="A45" s="175"/>
       <c r="B45" s="21" t="s">
         <v>219</v>
       </c>
@@ -29284,7 +29438,7 @@
       <c r="L45" s="5"/>
     </row>
     <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="185"/>
+      <c r="A46" s="175"/>
       <c r="B46" s="138" t="s">
         <v>220</v>
       </c>
@@ -29300,7 +29454,7 @@
       <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="185"/>
+      <c r="A47" s="175"/>
       <c r="B47" s="21" t="s">
         <v>221</v>
       </c>
@@ -29316,7 +29470,7 @@
       <c r="L47" s="5"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="185"/>
+      <c r="A48" s="175"/>
       <c r="B48" s="21" t="s">
         <v>222</v>
       </c>
@@ -29332,7 +29486,7 @@
       <c r="L48" s="5"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="186"/>
+      <c r="A49" s="176"/>
       <c r="B49" s="21" t="s">
         <v>216</v>
       </c>
@@ -29360,7 +29514,7 @@
       <c r="E51" s="130"/>
     </row>
     <row r="52" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="184" t="s">
+      <c r="A52" s="174" t="s">
         <v>191</v>
       </c>
       <c r="B52" s="21" t="s">
@@ -29378,7 +29532,7 @@
       <c r="L52" s="5"/>
     </row>
     <row r="53" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="185"/>
+      <c r="A53" s="175"/>
       <c r="B53" s="21" t="s">
         <v>224</v>
       </c>
@@ -29394,7 +29548,7 @@
       <c r="L53" s="5"/>
     </row>
     <row r="54" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="185"/>
+      <c r="A54" s="175"/>
       <c r="B54" s="21" t="s">
         <v>225</v>
       </c>
@@ -29410,7 +29564,7 @@
       <c r="L54" s="5"/>
     </row>
     <row r="55" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="185"/>
+      <c r="A55" s="175"/>
       <c r="B55" s="21" t="s">
         <v>226</v>
       </c>
@@ -29426,7 +29580,7 @@
       <c r="L55" s="5"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="185"/>
+      <c r="A56" s="175"/>
       <c r="B56" s="21" t="s">
         <v>227</v>
       </c>
@@ -29442,7 +29596,7 @@
       <c r="L56" s="5"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="186"/>
+      <c r="A57" s="176"/>
       <c r="B57" s="21" t="s">
         <v>216</v>
       </c>
@@ -29464,7 +29618,7 @@
       <c r="B59" s="90"/>
     </row>
     <row r="60" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="184" t="s">
+      <c r="A60" s="174" t="s">
         <v>194</v>
       </c>
       <c r="B60" s="21" t="s">
@@ -29480,7 +29634,7 @@
       <c r="J60" s="5"/>
     </row>
     <row r="61" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="185"/>
+      <c r="A61" s="175"/>
       <c r="B61" s="21" t="s">
         <v>229</v>
       </c>
@@ -29494,7 +29648,7 @@
       <c r="J61" s="5"/>
     </row>
     <row r="62" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="185"/>
+      <c r="A62" s="175"/>
       <c r="B62" s="21" t="s">
         <v>230</v>
       </c>
@@ -29508,7 +29662,7 @@
       <c r="J62" s="5"/>
     </row>
     <row r="63" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="185"/>
+      <c r="A63" s="175"/>
       <c r="B63" s="21" t="s">
         <v>231</v>
       </c>
@@ -29522,7 +29676,7 @@
       <c r="J63" s="5"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="185"/>
+      <c r="A64" s="175"/>
       <c r="B64" s="21" t="s">
         <v>232</v>
       </c>
@@ -29536,7 +29690,7 @@
       <c r="J64" s="5"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="186"/>
+      <c r="A65" s="176"/>
       <c r="B65" s="21" t="s">
         <v>212</v>
       </c>
@@ -31706,23 +31860,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E13:E15"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="A60:A65"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/file/调度平台设计.xlsx
+++ b/file/调度平台设计.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\kedaProject\WCS_INTEGRATE\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB972A3F-E6EA-4C7F-AD68-B3D7A7A1258B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76D236F-2744-4A93-94E4-9A9E915EDCD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="计划" sheetId="10" r:id="rId1"/>
     <sheet name="区域关系" sheetId="17" r:id="rId2"/>
-    <sheet name="字典" sheetId="18" r:id="rId3"/>
-    <sheet name="菜单" sheetId="22" r:id="rId4"/>
+    <sheet name="菜单" sheetId="22" r:id="rId3"/>
+    <sheet name="字典" sheetId="18" r:id="rId4"/>
     <sheet name="任务调度" sheetId="15" r:id="rId5"/>
     <sheet name="任务计划" sheetId="11" r:id="rId6"/>
     <sheet name="命名" sheetId="8" r:id="rId7"/>
@@ -30,7 +30,7 @@
     <sheet name="问题" sheetId="21" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">菜单!$B$60:$H$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">菜单!$B$60:$H$147</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">轨道!$B$7:$W$131</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">模拟器!$E$29:$M$155</definedName>
   </definedNames>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="934">
   <si>
     <t>日期</t>
   </si>
@@ -3264,9 +3264,6 @@
     <t>arttoposition.png</t>
   </si>
   <si>
-    <t>平板-摆渡车对位</t>
-  </si>
-  <si>
     <t>配置开关</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
@@ -3367,6 +3364,25 @@
   <si>
     <t>06:30</t>
     <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换模式</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFTILEMODESHIFT</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.keda.wcsfixplatformapp.screen.rfworkmodechange.RfChangeWorkModeScreen</t>
+  </si>
+  <si>
+    <t>平板-摆渡车对位</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>平板-切换模式</t>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4677,7 +4693,43 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="20" borderId="38" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4701,44 +4753,8 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5297,14 +5313,14 @@
       <c r="D1" s="98" t="s">
         <v>263</v>
       </c>
-      <c r="E1" s="187" t="s">
+      <c r="E1" s="189" t="s">
         <v>264</v>
       </c>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187" t="s">
+      <c r="F1" s="189"/>
+      <c r="G1" s="189" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="187"/>
+      <c r="H1" s="189"/>
       <c r="I1" s="98"/>
       <c r="J1" s="106"/>
       <c r="K1" s="106"/>
@@ -5377,10 +5393,10 @@
       <c r="F4" s="5">
         <v>0</v>
       </c>
-      <c r="G4" s="169">
-        <v>2</v>
-      </c>
-      <c r="H4" s="169">
+      <c r="G4" s="171">
+        <v>2</v>
+      </c>
+      <c r="H4" s="171">
         <v>2</v>
       </c>
       <c r="I4" s="5">
@@ -5404,8 +5420,8 @@
       <c r="F5" s="101">
         <v>2</v>
       </c>
-      <c r="G5" s="169"/>
-      <c r="H5" s="169"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
         <v>272</v>
@@ -5425,8 +5441,8 @@
       <c r="F6" s="101">
         <v>2</v>
       </c>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
       <c r="I6" s="5">
         <v>4</v>
       </c>
@@ -22973,7 +22989,7 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="2:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="171" t="s">
         <v>654</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -22990,7 +23006,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="2:8" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="169"/>
+      <c r="B5" s="171"/>
       <c r="C5" s="8" t="s">
         <v>658</v>
       </c>
@@ -23005,7 +23021,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="2:8" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="169"/>
+      <c r="B6" s="171"/>
       <c r="C6" s="10" t="s">
         <v>660</v>
       </c>
@@ -23020,7 +23036,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="B7" s="169"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="10" t="s">
         <v>662</v>
       </c>
@@ -23293,11 +23309,3152 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF12AF46-9F25-4499-9F6C-A9732178A698}">
+  <dimension ref="B1:J159"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="5.375" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="6" max="6" width="36.875" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="163" t="s">
+        <v>704</v>
+      </c>
+      <c r="C2" s="163" t="s">
+        <v>705</v>
+      </c>
+      <c r="D2" s="163" t="s">
+        <v>706</v>
+      </c>
+      <c r="E2" s="163" t="s">
+        <v>707</v>
+      </c>
+      <c r="F2" s="163" t="s">
+        <v>708</v>
+      </c>
+      <c r="G2" s="164" t="s">
+        <v>728</v>
+      </c>
+      <c r="H2" s="164" t="s">
+        <v>729</v>
+      </c>
+      <c r="I2" s="164" t="s">
+        <v>730</v>
+      </c>
+      <c r="J2" s="164" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="66">
+        <v>1</v>
+      </c>
+      <c r="C3" s="165" t="s">
+        <v>731</v>
+      </c>
+      <c r="D3" s="66">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>709</v>
+      </c>
+      <c r="G3" t="s">
+        <v>752</v>
+      </c>
+      <c r="H3" t="s">
+        <v>751</v>
+      </c>
+      <c r="I3" t="s">
+        <v>753</v>
+      </c>
+      <c r="J3" s="165" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="66">
+        <v>2</v>
+      </c>
+      <c r="C4" s="165" t="s">
+        <v>732</v>
+      </c>
+      <c r="D4" s="66">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>711</v>
+      </c>
+      <c r="G4" t="s">
+        <v>752</v>
+      </c>
+      <c r="H4" t="s">
+        <v>751</v>
+      </c>
+      <c r="I4" t="s">
+        <v>754</v>
+      </c>
+      <c r="J4" s="165" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="66">
+        <v>3</v>
+      </c>
+      <c r="C5" s="166" t="s">
+        <v>745</v>
+      </c>
+      <c r="D5" s="66">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>712</v>
+      </c>
+      <c r="G5" t="s">
+        <v>752</v>
+      </c>
+      <c r="H5" t="s">
+        <v>751</v>
+      </c>
+      <c r="I5" t="s">
+        <v>755</v>
+      </c>
+      <c r="J5" s="165" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="66">
+        <v>4</v>
+      </c>
+      <c r="C6" s="166" t="s">
+        <v>733</v>
+      </c>
+      <c r="D6" s="66">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>713</v>
+      </c>
+      <c r="G6" t="s">
+        <v>752</v>
+      </c>
+      <c r="H6" t="s">
+        <v>751</v>
+      </c>
+      <c r="I6" t="s">
+        <v>756</v>
+      </c>
+      <c r="J6" s="166" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="66">
+        <v>5</v>
+      </c>
+      <c r="C7" s="166" t="s">
+        <v>734</v>
+      </c>
+      <c r="D7" s="66">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>714</v>
+      </c>
+      <c r="G7" t="s">
+        <v>752</v>
+      </c>
+      <c r="H7" t="s">
+        <v>751</v>
+      </c>
+      <c r="I7" t="s">
+        <v>757</v>
+      </c>
+      <c r="J7" s="166" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="66">
+        <v>6</v>
+      </c>
+      <c r="C8" s="166" t="s">
+        <v>735</v>
+      </c>
+      <c r="D8" s="66">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>715</v>
+      </c>
+      <c r="G8" t="s">
+        <v>752</v>
+      </c>
+      <c r="H8" t="s">
+        <v>751</v>
+      </c>
+      <c r="I8" t="s">
+        <v>758</v>
+      </c>
+      <c r="J8" s="166" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="66">
+        <v>7</v>
+      </c>
+      <c r="C9" s="166" t="s">
+        <v>737</v>
+      </c>
+      <c r="D9" s="66">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>716</v>
+      </c>
+      <c r="G9" t="s">
+        <v>752</v>
+      </c>
+      <c r="H9" t="s">
+        <v>751</v>
+      </c>
+      <c r="I9" t="s">
+        <v>759</v>
+      </c>
+      <c r="J9" s="166" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="66">
+        <v>8</v>
+      </c>
+      <c r="C10" s="166" t="s">
+        <v>738</v>
+      </c>
+      <c r="D10" s="66">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G10" t="s">
+        <v>752</v>
+      </c>
+      <c r="H10" t="s">
+        <v>751</v>
+      </c>
+      <c r="I10" t="s">
+        <v>760</v>
+      </c>
+      <c r="J10" s="166" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="66">
+        <v>9</v>
+      </c>
+      <c r="C11" s="166" t="s">
+        <v>739</v>
+      </c>
+      <c r="D11" s="66">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>718</v>
+      </c>
+      <c r="G11" t="s">
+        <v>752</v>
+      </c>
+      <c r="H11" t="s">
+        <v>751</v>
+      </c>
+      <c r="I11" t="s">
+        <v>761</v>
+      </c>
+      <c r="J11" s="166" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="66">
+        <v>10</v>
+      </c>
+      <c r="C12" s="166" t="s">
+        <v>742</v>
+      </c>
+      <c r="D12" s="66">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>719</v>
+      </c>
+      <c r="G12" t="s">
+        <v>752</v>
+      </c>
+      <c r="H12" t="s">
+        <v>751</v>
+      </c>
+      <c r="I12" t="s">
+        <v>762</v>
+      </c>
+      <c r="J12" s="166" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="66">
+        <v>11</v>
+      </c>
+      <c r="C13" s="166" t="s">
+        <v>743</v>
+      </c>
+      <c r="D13" s="66">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>720</v>
+      </c>
+      <c r="G13" t="s">
+        <v>752</v>
+      </c>
+      <c r="H13" t="s">
+        <v>751</v>
+      </c>
+      <c r="I13" t="s">
+        <v>763</v>
+      </c>
+      <c r="J13" s="166" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="66">
+        <v>12</v>
+      </c>
+      <c r="C14" s="166" t="s">
+        <v>744</v>
+      </c>
+      <c r="D14" s="66">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>721</v>
+      </c>
+      <c r="G14" t="s">
+        <v>752</v>
+      </c>
+      <c r="H14" t="s">
+        <v>751</v>
+      </c>
+      <c r="I14" t="s">
+        <v>764</v>
+      </c>
+      <c r="J14" s="166" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="66">
+        <v>13</v>
+      </c>
+      <c r="C15" s="166" t="s">
+        <v>746</v>
+      </c>
+      <c r="D15" s="66">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>722</v>
+      </c>
+      <c r="G15" t="s">
+        <v>752</v>
+      </c>
+      <c r="H15" t="s">
+        <v>751</v>
+      </c>
+      <c r="I15" t="s">
+        <v>765</v>
+      </c>
+      <c r="J15" s="166" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="66">
+        <v>14</v>
+      </c>
+      <c r="C16" s="166" t="s">
+        <v>747</v>
+      </c>
+      <c r="D16" s="66">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>723</v>
+      </c>
+      <c r="G16" t="s">
+        <v>752</v>
+      </c>
+      <c r="H16" t="s">
+        <v>751</v>
+      </c>
+      <c r="I16" t="s">
+        <v>766</v>
+      </c>
+      <c r="J16" s="166" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="66">
+        <v>15</v>
+      </c>
+      <c r="C17" s="165" t="s">
+        <v>740</v>
+      </c>
+      <c r="D17" s="66">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>724</v>
+      </c>
+      <c r="G17" t="s">
+        <v>752</v>
+      </c>
+      <c r="H17" t="s">
+        <v>751</v>
+      </c>
+      <c r="I17" t="s">
+        <v>767</v>
+      </c>
+      <c r="J17" s="166" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="66">
+        <v>16</v>
+      </c>
+      <c r="C18" s="165" t="s">
+        <v>748</v>
+      </c>
+      <c r="D18" s="66">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>725</v>
+      </c>
+      <c r="G18" t="s">
+        <v>752</v>
+      </c>
+      <c r="H18" t="s">
+        <v>751</v>
+      </c>
+      <c r="I18" t="s">
+        <v>768</v>
+      </c>
+      <c r="J18" s="166" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="66">
+        <v>17</v>
+      </c>
+      <c r="C19" s="165" t="s">
+        <v>749</v>
+      </c>
+      <c r="D19" s="66">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>726</v>
+      </c>
+      <c r="G19" t="s">
+        <v>752</v>
+      </c>
+      <c r="H19" t="s">
+        <v>751</v>
+      </c>
+      <c r="I19" t="s">
+        <v>769</v>
+      </c>
+      <c r="J19" s="166" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="66">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>750</v>
+      </c>
+      <c r="D20" s="66">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>727</v>
+      </c>
+      <c r="G20" t="s">
+        <v>752</v>
+      </c>
+      <c r="H20" t="s">
+        <v>751</v>
+      </c>
+      <c r="I20" t="s">
+        <v>770</v>
+      </c>
+      <c r="J20" s="166" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="66">
+        <v>19</v>
+      </c>
+      <c r="C21" s="165" t="s">
+        <v>771</v>
+      </c>
+      <c r="D21" s="66">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>772</v>
+      </c>
+      <c r="F21" t="s">
+        <v>773</v>
+      </c>
+      <c r="H21" t="s">
+        <v>898</v>
+      </c>
+      <c r="J21" s="166" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="66">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>774</v>
+      </c>
+      <c r="D22" s="66">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>776</v>
+      </c>
+      <c r="F22" t="s">
+        <v>775</v>
+      </c>
+      <c r="H22" t="s">
+        <v>899</v>
+      </c>
+      <c r="J22" s="166" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="66">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>791</v>
+      </c>
+      <c r="D23" s="66">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>777</v>
+      </c>
+      <c r="F23" t="s">
+        <v>778</v>
+      </c>
+      <c r="H23" t="s">
+        <v>900</v>
+      </c>
+      <c r="J23" s="166" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="66">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="66">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>793</v>
+      </c>
+      <c r="F24" t="s">
+        <v>779</v>
+      </c>
+      <c r="H24" t="s">
+        <v>901</v>
+      </c>
+      <c r="J24" s="166" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="66">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>790</v>
+      </c>
+      <c r="D25" s="66">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>792</v>
+      </c>
+      <c r="F25" t="s">
+        <v>780</v>
+      </c>
+      <c r="H25" t="s">
+        <v>901</v>
+      </c>
+      <c r="J25" s="166" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="66">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>789</v>
+      </c>
+      <c r="D26" s="66">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>794</v>
+      </c>
+      <c r="F26" t="s">
+        <v>781</v>
+      </c>
+      <c r="H26" t="s">
+        <v>902</v>
+      </c>
+      <c r="J26" s="166" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="66">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>788</v>
+      </c>
+      <c r="D27" s="66">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>795</v>
+      </c>
+      <c r="F27" t="s">
+        <v>782</v>
+      </c>
+      <c r="H27" t="s">
+        <v>899</v>
+      </c>
+      <c r="J27" s="166" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="66">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>741</v>
+      </c>
+      <c r="D28" s="66">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>796</v>
+      </c>
+      <c r="F28" t="s">
+        <v>783</v>
+      </c>
+      <c r="H28" t="s">
+        <v>899</v>
+      </c>
+      <c r="J28" s="166" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="66">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>787</v>
+      </c>
+      <c r="D29" s="66">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>797</v>
+      </c>
+      <c r="F29" t="s">
+        <v>784</v>
+      </c>
+      <c r="H29" t="s">
+        <v>900</v>
+      </c>
+      <c r="J29" s="166" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="66">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>786</v>
+      </c>
+      <c r="D30" s="66">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>798</v>
+      </c>
+      <c r="F30" t="s">
+        <v>785</v>
+      </c>
+      <c r="H30" t="s">
+        <v>900</v>
+      </c>
+      <c r="J30" s="166" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="66">
+        <v>29</v>
+      </c>
+      <c r="C31" s="165" t="s">
+        <v>827</v>
+      </c>
+      <c r="D31" s="66">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>828</v>
+      </c>
+      <c r="G31" t="s">
+        <v>752</v>
+      </c>
+      <c r="H31" t="s">
+        <v>751</v>
+      </c>
+      <c r="I31" t="s">
+        <v>829</v>
+      </c>
+      <c r="J31" s="166" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="66">
+        <v>30</v>
+      </c>
+      <c r="C32" s="165" t="s">
+        <v>830</v>
+      </c>
+      <c r="D32" s="66">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>831</v>
+      </c>
+      <c r="G32" t="s">
+        <v>752</v>
+      </c>
+      <c r="H32" t="s">
+        <v>751</v>
+      </c>
+      <c r="I32" t="s">
+        <v>832</v>
+      </c>
+      <c r="J32" s="166" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="66">
+        <v>31</v>
+      </c>
+      <c r="C33" s="165" t="s">
+        <v>867</v>
+      </c>
+      <c r="D33" s="66">
+        <v>0</v>
+      </c>
+      <c r="E33" s="165" t="s">
+        <v>884</v>
+      </c>
+      <c r="G33" t="s">
+        <v>752</v>
+      </c>
+      <c r="H33" t="s">
+        <v>751</v>
+      </c>
+      <c r="I33" s="165" t="s">
+        <v>886</v>
+      </c>
+      <c r="J33" s="166" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="66">
+        <v>32</v>
+      </c>
+      <c r="C34" s="165" t="s">
+        <v>896</v>
+      </c>
+      <c r="D34" s="66">
+        <v>1</v>
+      </c>
+      <c r="E34" s="165" t="s">
+        <v>903</v>
+      </c>
+      <c r="F34" t="s">
+        <v>904</v>
+      </c>
+      <c r="H34" t="s">
+        <v>905</v>
+      </c>
+      <c r="J34" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="66">
+        <v>33</v>
+      </c>
+      <c r="C35" s="165" t="s">
+        <v>929</v>
+      </c>
+      <c r="D35" s="66">
+        <v>1</v>
+      </c>
+      <c r="E35" s="165" t="s">
+        <v>930</v>
+      </c>
+      <c r="F35" t="s">
+        <v>931</v>
+      </c>
+      <c r="H35" t="s">
+        <v>900</v>
+      </c>
+      <c r="J35" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="66"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="165"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="66"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="165"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="165" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="163" t="s">
+        <v>812</v>
+      </c>
+      <c r="C39" s="163" t="s">
+        <v>815</v>
+      </c>
+      <c r="D39" s="163" t="s">
+        <v>816</v>
+      </c>
+      <c r="E39" s="163" t="s">
+        <v>803</v>
+      </c>
+      <c r="F39" s="167" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" s="165" t="s">
+        <v>820</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" s="165" t="s">
+        <v>821</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" s="166" t="s">
+        <v>822</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="165" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="163" t="s">
+        <v>812</v>
+      </c>
+      <c r="C45" s="163" t="s">
+        <v>813</v>
+      </c>
+      <c r="D45" s="163" t="s">
+        <v>814</v>
+      </c>
+      <c r="E45" s="163" t="s">
+        <v>705</v>
+      </c>
+      <c r="F45" s="163" t="s">
+        <v>736</v>
+      </c>
+      <c r="G45" s="163" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" s="165" t="s">
+        <v>817</v>
+      </c>
+      <c r="D46" s="165" t="s">
+        <v>817</v>
+      </c>
+      <c r="E46" s="165" t="s">
+        <v>818</v>
+      </c>
+      <c r="F46" s="165" t="s">
+        <v>819</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" s="166" t="s">
+        <v>825</v>
+      </c>
+      <c r="D47" s="165" t="s">
+        <v>825</v>
+      </c>
+      <c r="E47" s="165" t="s">
+        <v>821</v>
+      </c>
+      <c r="F47" s="165"/>
+      <c r="G47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" s="166" t="s">
+        <v>826</v>
+      </c>
+      <c r="D48" s="166" t="s">
+        <v>826</v>
+      </c>
+      <c r="E48" s="166" t="s">
+        <v>822</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" s="163" t="s">
+        <v>704</v>
+      </c>
+      <c r="C51" s="163" t="s">
+        <v>705</v>
+      </c>
+      <c r="D51" s="163" t="s">
+        <v>800</v>
+      </c>
+      <c r="E51" s="163" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>801</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" s="165" t="s">
+        <v>823</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54" s="166" t="s">
+        <v>824</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55" s="166" t="s">
+        <v>863</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B60" s="163" t="s">
+        <v>704</v>
+      </c>
+      <c r="C60" s="163" t="s">
+        <v>803</v>
+      </c>
+      <c r="D60" s="163" t="s">
+        <v>705</v>
+      </c>
+      <c r="E60" s="163" t="s">
+        <v>804</v>
+      </c>
+      <c r="F60" s="163" t="s">
+        <v>805</v>
+      </c>
+      <c r="G60" s="163" t="s">
+        <v>806</v>
+      </c>
+      <c r="H60" s="163" t="s">
+        <v>807</v>
+      </c>
+      <c r="I60" s="164" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B61" s="168">
+        <v>1</v>
+      </c>
+      <c r="C61" s="168">
+        <v>1</v>
+      </c>
+      <c r="D61" s="168" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="168">
+        <v>1</v>
+      </c>
+      <c r="F61" s="168"/>
+      <c r="G61" s="168"/>
+      <c r="H61" s="168">
+        <v>1</v>
+      </c>
+      <c r="I61" s="168"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B62" s="168">
+        <v>2</v>
+      </c>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="168"/>
+      <c r="F62" s="168">
+        <v>1</v>
+      </c>
+      <c r="G62" s="168">
+        <v>3</v>
+      </c>
+      <c r="H62" s="168">
+        <v>1</v>
+      </c>
+      <c r="I62" s="168"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B63" s="168">
+        <v>3</v>
+      </c>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168" t="s">
+        <v>872</v>
+      </c>
+      <c r="E63" s="168"/>
+      <c r="F63" s="168">
+        <v>1</v>
+      </c>
+      <c r="G63" s="168">
+        <v>11</v>
+      </c>
+      <c r="H63" s="168">
+        <v>2</v>
+      </c>
+      <c r="I63" s="168"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B64" s="168">
+        <v>4</v>
+      </c>
+      <c r="C64" s="168">
+        <v>1</v>
+      </c>
+      <c r="D64" s="168" t="s">
+        <v>654</v>
+      </c>
+      <c r="E64" s="168">
+        <v>1</v>
+      </c>
+      <c r="F64" s="168"/>
+      <c r="G64" s="168"/>
+      <c r="H64" s="168">
+        <v>2</v>
+      </c>
+      <c r="I64" s="168"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B65" s="168">
+        <v>5</v>
+      </c>
+      <c r="C65" s="168"/>
+      <c r="D65" s="168" t="s">
+        <v>808</v>
+      </c>
+      <c r="E65" s="168"/>
+      <c r="F65" s="168">
+        <v>4</v>
+      </c>
+      <c r="G65" s="168">
+        <v>6</v>
+      </c>
+      <c r="H65" s="168">
+        <v>1</v>
+      </c>
+      <c r="I65" s="168"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B66" s="168">
+        <v>6</v>
+      </c>
+      <c r="C66" s="168"/>
+      <c r="D66" s="168" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="168"/>
+      <c r="F66" s="168">
+        <v>4</v>
+      </c>
+      <c r="G66" s="168">
+        <v>4</v>
+      </c>
+      <c r="H66" s="168">
+        <v>2</v>
+      </c>
+      <c r="I66" s="168"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B67" s="168">
+        <v>7</v>
+      </c>
+      <c r="C67" s="168"/>
+      <c r="D67" s="168" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="168"/>
+      <c r="F67" s="168">
+        <v>4</v>
+      </c>
+      <c r="G67" s="168">
+        <v>5</v>
+      </c>
+      <c r="H67" s="168">
+        <v>3</v>
+      </c>
+      <c r="I67" s="168"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B68" s="168">
+        <v>8</v>
+      </c>
+      <c r="C68" s="168">
+        <v>1</v>
+      </c>
+      <c r="D68" s="168" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="168">
+        <v>1</v>
+      </c>
+      <c r="F68" s="168"/>
+      <c r="G68" s="168">
+        <v>7</v>
+      </c>
+      <c r="H68" s="168">
+        <v>3</v>
+      </c>
+      <c r="I68" s="168"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B69" s="168">
+        <v>9</v>
+      </c>
+      <c r="C69" s="168"/>
+      <c r="D69" s="168" t="s">
+        <v>451</v>
+      </c>
+      <c r="E69" s="168"/>
+      <c r="F69" s="168">
+        <v>8</v>
+      </c>
+      <c r="G69" s="168">
+        <v>7</v>
+      </c>
+      <c r="H69" s="168">
+        <v>1</v>
+      </c>
+      <c r="I69" s="168"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B70" s="168">
+        <v>10</v>
+      </c>
+      <c r="C70" s="168"/>
+      <c r="D70" s="168" t="s">
+        <v>873</v>
+      </c>
+      <c r="E70" s="168"/>
+      <c r="F70" s="168">
+        <v>8</v>
+      </c>
+      <c r="G70" s="168">
+        <v>10</v>
+      </c>
+      <c r="H70" s="168">
+        <v>2</v>
+      </c>
+      <c r="I70" s="168"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B71" s="168">
+        <v>11</v>
+      </c>
+      <c r="C71" s="168">
+        <v>1</v>
+      </c>
+      <c r="D71" s="168" t="s">
+        <v>874</v>
+      </c>
+      <c r="E71" s="168">
+        <v>1</v>
+      </c>
+      <c r="F71" s="168"/>
+      <c r="G71" s="168"/>
+      <c r="H71" s="168">
+        <v>4</v>
+      </c>
+      <c r="I71" s="168"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B72" s="168">
+        <v>12</v>
+      </c>
+      <c r="C72" s="168"/>
+      <c r="D72" s="168" t="s">
+        <v>741</v>
+      </c>
+      <c r="E72" s="168"/>
+      <c r="F72" s="168">
+        <v>11</v>
+      </c>
+      <c r="G72" s="168">
+        <v>15</v>
+      </c>
+      <c r="H72" s="168">
+        <v>1</v>
+      </c>
+      <c r="I72" s="168"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B73" s="168">
+        <v>13</v>
+      </c>
+      <c r="C73" s="168"/>
+      <c r="D73" s="168" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" s="168"/>
+      <c r="F73" s="168">
+        <v>11</v>
+      </c>
+      <c r="G73" s="168">
+        <v>16</v>
+      </c>
+      <c r="H73" s="168">
+        <v>2</v>
+      </c>
+      <c r="I73" s="168"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B74" s="168">
+        <v>14</v>
+      </c>
+      <c r="C74" s="168"/>
+      <c r="D74" s="168" t="s">
+        <v>871</v>
+      </c>
+      <c r="E74" s="168"/>
+      <c r="F74" s="168">
+        <v>11</v>
+      </c>
+      <c r="G74" s="168">
+        <v>17</v>
+      </c>
+      <c r="H74" s="168">
+        <v>3</v>
+      </c>
+      <c r="I74" s="168"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B75" s="168">
+        <v>15</v>
+      </c>
+      <c r="C75" s="168">
+        <v>1</v>
+      </c>
+      <c r="D75" s="168" t="s">
+        <v>875</v>
+      </c>
+      <c r="E75" s="168">
+        <v>1</v>
+      </c>
+      <c r="F75" s="168"/>
+      <c r="G75" s="168"/>
+      <c r="H75" s="168">
+        <v>5</v>
+      </c>
+      <c r="I75" s="168"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B76" s="168">
+        <v>16</v>
+      </c>
+      <c r="C76" s="168"/>
+      <c r="D76" s="168" t="s">
+        <v>876</v>
+      </c>
+      <c r="E76" s="168"/>
+      <c r="F76" s="168">
+        <v>15</v>
+      </c>
+      <c r="G76" s="168">
+        <v>13</v>
+      </c>
+      <c r="H76" s="168">
+        <v>1</v>
+      </c>
+      <c r="I76" s="168"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B77" s="168">
+        <v>17</v>
+      </c>
+      <c r="C77" s="168">
+        <v>2</v>
+      </c>
+      <c r="D77" s="168" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" s="168">
+        <v>1</v>
+      </c>
+      <c r="F77" s="168"/>
+      <c r="G77" s="168"/>
+      <c r="H77" s="168">
+        <v>1</v>
+      </c>
+      <c r="I77" s="168"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B78" s="168">
+        <v>18</v>
+      </c>
+      <c r="C78" s="168"/>
+      <c r="D78" s="168" t="s">
+        <v>38</v>
+      </c>
+      <c r="E78" s="168"/>
+      <c r="F78" s="168">
+        <v>17</v>
+      </c>
+      <c r="G78" s="168">
+        <v>3</v>
+      </c>
+      <c r="H78" s="168">
+        <v>1</v>
+      </c>
+      <c r="I78" s="168"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B79" s="168">
+        <v>19</v>
+      </c>
+      <c r="C79" s="168"/>
+      <c r="D79" s="168" t="s">
+        <v>872</v>
+      </c>
+      <c r="E79" s="168"/>
+      <c r="F79" s="168">
+        <v>17</v>
+      </c>
+      <c r="G79" s="168">
+        <v>11</v>
+      </c>
+      <c r="H79" s="168">
+        <v>2</v>
+      </c>
+      <c r="I79" s="168"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B80" s="168">
+        <v>20</v>
+      </c>
+      <c r="C80" s="168">
+        <v>2</v>
+      </c>
+      <c r="D80" s="168" t="s">
+        <v>654</v>
+      </c>
+      <c r="E80" s="168">
+        <v>1</v>
+      </c>
+      <c r="F80" s="168"/>
+      <c r="G80" s="168"/>
+      <c r="H80" s="168">
+        <v>2</v>
+      </c>
+      <c r="I80" s="168"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B81" s="168">
+        <v>21</v>
+      </c>
+      <c r="C81" s="168"/>
+      <c r="D81" s="168" t="s">
+        <v>808</v>
+      </c>
+      <c r="E81" s="168"/>
+      <c r="F81" s="168">
+        <v>20</v>
+      </c>
+      <c r="G81" s="168">
+        <v>6</v>
+      </c>
+      <c r="H81" s="168">
+        <v>1</v>
+      </c>
+      <c r="I81" s="168"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B82" s="168">
+        <v>22</v>
+      </c>
+      <c r="C82" s="168"/>
+      <c r="D82" s="168" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="168"/>
+      <c r="F82" s="168">
+        <v>20</v>
+      </c>
+      <c r="G82" s="168">
+        <v>4</v>
+      </c>
+      <c r="H82" s="168">
+        <v>2</v>
+      </c>
+      <c r="I82" s="168"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B83" s="168">
+        <v>23</v>
+      </c>
+      <c r="C83" s="168"/>
+      <c r="D83" s="168" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" s="168"/>
+      <c r="F83" s="168">
+        <v>20</v>
+      </c>
+      <c r="G83" s="168">
+        <v>5</v>
+      </c>
+      <c r="H83" s="168">
+        <v>3</v>
+      </c>
+      <c r="I83" s="168"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B84" s="168">
+        <v>24</v>
+      </c>
+      <c r="C84" s="168">
+        <v>2</v>
+      </c>
+      <c r="D84" s="168" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="168">
+        <v>1</v>
+      </c>
+      <c r="F84" s="168"/>
+      <c r="G84" s="168"/>
+      <c r="H84" s="168">
+        <v>3</v>
+      </c>
+      <c r="I84" s="168"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B85" s="168">
+        <v>25</v>
+      </c>
+      <c r="C85" s="168"/>
+      <c r="D85" s="168" t="s">
+        <v>451</v>
+      </c>
+      <c r="E85" s="168"/>
+      <c r="F85" s="168">
+        <v>24</v>
+      </c>
+      <c r="G85" s="168">
+        <v>7</v>
+      </c>
+      <c r="H85" s="168">
+        <v>1</v>
+      </c>
+      <c r="I85" s="168"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B86" s="168">
+        <v>26</v>
+      </c>
+      <c r="C86" s="168"/>
+      <c r="D86" s="168" t="s">
+        <v>873</v>
+      </c>
+      <c r="E86" s="168"/>
+      <c r="F86" s="168">
+        <v>24</v>
+      </c>
+      <c r="G86" s="168">
+        <v>10</v>
+      </c>
+      <c r="H86" s="168">
+        <v>2</v>
+      </c>
+      <c r="I86" s="168"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B87" s="168">
+        <v>27</v>
+      </c>
+      <c r="C87" s="168">
+        <v>2</v>
+      </c>
+      <c r="D87" s="168" t="s">
+        <v>874</v>
+      </c>
+      <c r="E87" s="168">
+        <v>1</v>
+      </c>
+      <c r="F87" s="168"/>
+      <c r="G87" s="168"/>
+      <c r="H87" s="168">
+        <v>4</v>
+      </c>
+      <c r="I87" s="168"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B88" s="168">
+        <v>28</v>
+      </c>
+      <c r="C88" s="168"/>
+      <c r="D88" s="168" t="s">
+        <v>741</v>
+      </c>
+      <c r="E88" s="168"/>
+      <c r="F88" s="168">
+        <v>27</v>
+      </c>
+      <c r="G88" s="168">
+        <v>15</v>
+      </c>
+      <c r="H88" s="168">
+        <v>1</v>
+      </c>
+      <c r="I88" s="168"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B89" s="168">
+        <v>29</v>
+      </c>
+      <c r="C89" s="168"/>
+      <c r="D89" s="168" t="s">
+        <v>40</v>
+      </c>
+      <c r="E89" s="168"/>
+      <c r="F89" s="168">
+        <v>27</v>
+      </c>
+      <c r="G89" s="168">
+        <v>16</v>
+      </c>
+      <c r="H89" s="168">
+        <v>2</v>
+      </c>
+      <c r="I89" s="168"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B90" s="168">
+        <v>30</v>
+      </c>
+      <c r="C90" s="168"/>
+      <c r="D90" s="168" t="s">
+        <v>871</v>
+      </c>
+      <c r="E90" s="168"/>
+      <c r="F90" s="168">
+        <v>27</v>
+      </c>
+      <c r="G90" s="168">
+        <v>17</v>
+      </c>
+      <c r="H90" s="168">
+        <v>3</v>
+      </c>
+      <c r="I90" s="168"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B91" s="168">
+        <v>31</v>
+      </c>
+      <c r="C91" s="168">
+        <v>2</v>
+      </c>
+      <c r="D91" s="168" t="s">
+        <v>875</v>
+      </c>
+      <c r="E91" s="168">
+        <v>1</v>
+      </c>
+      <c r="F91" s="168"/>
+      <c r="G91" s="168"/>
+      <c r="H91" s="168">
+        <v>5</v>
+      </c>
+      <c r="I91" s="168"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B92" s="168">
+        <v>32</v>
+      </c>
+      <c r="C92" s="168"/>
+      <c r="D92" s="168" t="s">
+        <v>876</v>
+      </c>
+      <c r="E92" s="168"/>
+      <c r="F92" s="168">
+        <v>31</v>
+      </c>
+      <c r="G92" s="168">
+        <v>13</v>
+      </c>
+      <c r="H92" s="168">
+        <v>1</v>
+      </c>
+      <c r="I92" s="168"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B93" s="168">
+        <v>33</v>
+      </c>
+      <c r="C93" s="168"/>
+      <c r="D93" s="168" t="s">
+        <v>877</v>
+      </c>
+      <c r="E93" s="168"/>
+      <c r="F93" s="168">
+        <v>31</v>
+      </c>
+      <c r="G93" s="168">
+        <v>2</v>
+      </c>
+      <c r="H93" s="168">
+        <v>2</v>
+      </c>
+      <c r="I93" s="168"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B94" s="168">
+        <v>34</v>
+      </c>
+      <c r="C94" s="168"/>
+      <c r="D94" s="168" t="s">
+        <v>878</v>
+      </c>
+      <c r="E94" s="168"/>
+      <c r="F94" s="168">
+        <v>31</v>
+      </c>
+      <c r="G94" s="168">
+        <v>14</v>
+      </c>
+      <c r="H94" s="168">
+        <v>3</v>
+      </c>
+      <c r="I94" s="168"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B95" s="168">
+        <v>35</v>
+      </c>
+      <c r="C95" s="168"/>
+      <c r="D95" s="168" t="s">
+        <v>879</v>
+      </c>
+      <c r="E95" s="168"/>
+      <c r="F95" s="168">
+        <v>31</v>
+      </c>
+      <c r="G95" s="168">
+        <v>29</v>
+      </c>
+      <c r="H95" s="168">
+        <v>4</v>
+      </c>
+      <c r="I95" s="168"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B96" s="168">
+        <v>36</v>
+      </c>
+      <c r="C96" s="168"/>
+      <c r="D96" s="168" t="s">
+        <v>739</v>
+      </c>
+      <c r="E96" s="168"/>
+      <c r="F96" s="168">
+        <v>31</v>
+      </c>
+      <c r="G96" s="168">
+        <v>9</v>
+      </c>
+      <c r="H96" s="168">
+        <v>5</v>
+      </c>
+      <c r="I96" s="168"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B97" s="168">
+        <v>37</v>
+      </c>
+      <c r="C97" s="168"/>
+      <c r="D97" s="168" t="s">
+        <v>880</v>
+      </c>
+      <c r="E97" s="168"/>
+      <c r="F97" s="168">
+        <v>31</v>
+      </c>
+      <c r="G97" s="168">
+        <v>12</v>
+      </c>
+      <c r="H97" s="168">
+        <v>6</v>
+      </c>
+      <c r="I97" s="168"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B98" s="168">
+        <v>38</v>
+      </c>
+      <c r="C98" s="168">
+        <v>2</v>
+      </c>
+      <c r="D98" s="168" t="s">
+        <v>865</v>
+      </c>
+      <c r="E98" s="168">
+        <v>1</v>
+      </c>
+      <c r="F98" s="168"/>
+      <c r="G98" s="168"/>
+      <c r="H98" s="168">
+        <v>6</v>
+      </c>
+      <c r="I98" s="168"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B99" s="168">
+        <v>39</v>
+      </c>
+      <c r="C99" s="168"/>
+      <c r="D99" s="168" t="s">
+        <v>866</v>
+      </c>
+      <c r="E99" s="168"/>
+      <c r="F99" s="168">
+        <v>38</v>
+      </c>
+      <c r="G99" s="168">
+        <v>31</v>
+      </c>
+      <c r="H99" s="168">
+        <v>1</v>
+      </c>
+      <c r="I99" s="168"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B100" s="168">
+        <v>40</v>
+      </c>
+      <c r="C100" s="168"/>
+      <c r="D100" s="168" t="s">
+        <v>868</v>
+      </c>
+      <c r="E100" s="168"/>
+      <c r="F100" s="168">
+        <v>38</v>
+      </c>
+      <c r="G100" s="168">
+        <v>30</v>
+      </c>
+      <c r="H100" s="168">
+        <v>2</v>
+      </c>
+      <c r="I100" s="168"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B101" s="168">
+        <v>41</v>
+      </c>
+      <c r="C101" s="168">
+        <v>3</v>
+      </c>
+      <c r="D101" s="168" t="s">
+        <v>2</v>
+      </c>
+      <c r="E101" s="168">
+        <v>1</v>
+      </c>
+      <c r="F101" s="168"/>
+      <c r="G101" s="168"/>
+      <c r="H101" s="168">
+        <v>1</v>
+      </c>
+      <c r="I101" s="168"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B102" s="168">
+        <v>42</v>
+      </c>
+      <c r="C102" s="168"/>
+      <c r="D102" s="168" t="s">
+        <v>38</v>
+      </c>
+      <c r="E102" s="168"/>
+      <c r="F102" s="168">
+        <v>41</v>
+      </c>
+      <c r="G102" s="168">
+        <v>3</v>
+      </c>
+      <c r="H102" s="168">
+        <v>1</v>
+      </c>
+      <c r="I102" s="168"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B103" s="168">
+        <v>43</v>
+      </c>
+      <c r="C103" s="168"/>
+      <c r="D103" s="168" t="s">
+        <v>872</v>
+      </c>
+      <c r="E103" s="168"/>
+      <c r="F103" s="168">
+        <v>41</v>
+      </c>
+      <c r="G103" s="168">
+        <v>11</v>
+      </c>
+      <c r="H103" s="168">
+        <v>2</v>
+      </c>
+      <c r="I103" s="168"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B104" s="168">
+        <v>44</v>
+      </c>
+      <c r="C104" s="168">
+        <v>3</v>
+      </c>
+      <c r="D104" s="168" t="s">
+        <v>654</v>
+      </c>
+      <c r="E104" s="168">
+        <v>1</v>
+      </c>
+      <c r="F104" s="168"/>
+      <c r="G104" s="168"/>
+      <c r="H104" s="168">
+        <v>2</v>
+      </c>
+      <c r="I104" s="168"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B105" s="168">
+        <v>45</v>
+      </c>
+      <c r="C105" s="168"/>
+      <c r="D105" s="168" t="s">
+        <v>808</v>
+      </c>
+      <c r="E105" s="168"/>
+      <c r="F105" s="168">
+        <v>44</v>
+      </c>
+      <c r="G105" s="168">
+        <v>6</v>
+      </c>
+      <c r="H105" s="168">
+        <v>1</v>
+      </c>
+      <c r="I105" s="168"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B106" s="168">
+        <v>46</v>
+      </c>
+      <c r="C106" s="168"/>
+      <c r="D106" s="168" t="s">
+        <v>23</v>
+      </c>
+      <c r="E106" s="168"/>
+      <c r="F106" s="168">
+        <v>44</v>
+      </c>
+      <c r="G106" s="168">
+        <v>4</v>
+      </c>
+      <c r="H106" s="168">
+        <v>2</v>
+      </c>
+      <c r="I106" s="168"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B107" s="168">
+        <v>47</v>
+      </c>
+      <c r="C107" s="168"/>
+      <c r="D107" s="168" t="s">
+        <v>21</v>
+      </c>
+      <c r="E107" s="168"/>
+      <c r="F107" s="168">
+        <v>44</v>
+      </c>
+      <c r="G107" s="168">
+        <v>5</v>
+      </c>
+      <c r="H107" s="168">
+        <v>3</v>
+      </c>
+      <c r="I107" s="168"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B108" s="168">
+        <v>48</v>
+      </c>
+      <c r="C108" s="168">
+        <v>3</v>
+      </c>
+      <c r="D108" s="168" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" s="168">
+        <v>1</v>
+      </c>
+      <c r="F108" s="168"/>
+      <c r="G108" s="168"/>
+      <c r="H108" s="168">
+        <v>3</v>
+      </c>
+      <c r="I108" s="168"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B109" s="168">
+        <v>49</v>
+      </c>
+      <c r="C109" s="168"/>
+      <c r="D109" s="168" t="s">
+        <v>451</v>
+      </c>
+      <c r="E109" s="168"/>
+      <c r="F109" s="168">
+        <v>48</v>
+      </c>
+      <c r="G109" s="168">
+        <v>7</v>
+      </c>
+      <c r="H109" s="168">
+        <v>1</v>
+      </c>
+      <c r="I109" s="168"/>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B110" s="168">
+        <v>50</v>
+      </c>
+      <c r="C110" s="168"/>
+      <c r="D110" s="168" t="s">
+        <v>873</v>
+      </c>
+      <c r="E110" s="168"/>
+      <c r="F110" s="168">
+        <v>48</v>
+      </c>
+      <c r="G110" s="168">
+        <v>10</v>
+      </c>
+      <c r="H110" s="168">
+        <v>2</v>
+      </c>
+      <c r="I110" s="168"/>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B111" s="168">
+        <v>51</v>
+      </c>
+      <c r="C111" s="168">
+        <v>3</v>
+      </c>
+      <c r="D111" s="168" t="s">
+        <v>874</v>
+      </c>
+      <c r="E111" s="168">
+        <v>1</v>
+      </c>
+      <c r="F111" s="168"/>
+      <c r="G111" s="168"/>
+      <c r="H111" s="168">
+        <v>4</v>
+      </c>
+      <c r="I111" s="168"/>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B112" s="168">
+        <v>52</v>
+      </c>
+      <c r="C112" s="168"/>
+      <c r="D112" s="168" t="s">
+        <v>741</v>
+      </c>
+      <c r="E112" s="168"/>
+      <c r="F112" s="168">
+        <v>51</v>
+      </c>
+      <c r="G112" s="168">
+        <v>15</v>
+      </c>
+      <c r="H112" s="168">
+        <v>1</v>
+      </c>
+      <c r="I112" s="168"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B113" s="168">
+        <v>53</v>
+      </c>
+      <c r="C113" s="168"/>
+      <c r="D113" s="168" t="s">
+        <v>40</v>
+      </c>
+      <c r="E113" s="168"/>
+      <c r="F113" s="168">
+        <v>51</v>
+      </c>
+      <c r="G113" s="168">
+        <v>16</v>
+      </c>
+      <c r="H113" s="168">
+        <v>2</v>
+      </c>
+      <c r="I113" s="168"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B114" s="168">
+        <v>54</v>
+      </c>
+      <c r="C114" s="168"/>
+      <c r="D114" s="168" t="s">
+        <v>871</v>
+      </c>
+      <c r="E114" s="168"/>
+      <c r="F114" s="168">
+        <v>51</v>
+      </c>
+      <c r="G114" s="168">
+        <v>17</v>
+      </c>
+      <c r="H114" s="168">
+        <v>3</v>
+      </c>
+      <c r="I114" s="168"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B115" s="168">
+        <v>55</v>
+      </c>
+      <c r="C115" s="168">
+        <v>3</v>
+      </c>
+      <c r="D115" s="168" t="s">
+        <v>875</v>
+      </c>
+      <c r="E115" s="168">
+        <v>1</v>
+      </c>
+      <c r="F115" s="168"/>
+      <c r="G115" s="168"/>
+      <c r="H115" s="168">
+        <v>5</v>
+      </c>
+      <c r="I115" s="168"/>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B116" s="168">
+        <v>56</v>
+      </c>
+      <c r="C116" s="168"/>
+      <c r="D116" s="168" t="s">
+        <v>876</v>
+      </c>
+      <c r="E116" s="168"/>
+      <c r="F116" s="168">
+        <v>55</v>
+      </c>
+      <c r="G116" s="168">
+        <v>13</v>
+      </c>
+      <c r="H116" s="168">
+        <v>1</v>
+      </c>
+      <c r="I116" s="168"/>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B117" s="168">
+        <v>57</v>
+      </c>
+      <c r="C117" s="168"/>
+      <c r="D117" s="168" t="s">
+        <v>877</v>
+      </c>
+      <c r="E117" s="168"/>
+      <c r="F117" s="168">
+        <v>55</v>
+      </c>
+      <c r="G117" s="168">
+        <v>2</v>
+      </c>
+      <c r="H117" s="168">
+        <v>2</v>
+      </c>
+      <c r="I117" s="168"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B118" s="168">
+        <v>58</v>
+      </c>
+      <c r="C118" s="168"/>
+      <c r="D118" s="168" t="s">
+        <v>878</v>
+      </c>
+      <c r="E118" s="168"/>
+      <c r="F118" s="168">
+        <v>55</v>
+      </c>
+      <c r="G118" s="168">
+        <v>14</v>
+      </c>
+      <c r="H118" s="168">
+        <v>3</v>
+      </c>
+      <c r="I118" s="168"/>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B119" s="168">
+        <v>59</v>
+      </c>
+      <c r="C119" s="168"/>
+      <c r="D119" s="168" t="s">
+        <v>879</v>
+      </c>
+      <c r="E119" s="168"/>
+      <c r="F119" s="168">
+        <v>55</v>
+      </c>
+      <c r="G119" s="168">
+        <v>29</v>
+      </c>
+      <c r="H119" s="168">
+        <v>4</v>
+      </c>
+      <c r="I119" s="168"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B120" s="168">
+        <v>60</v>
+      </c>
+      <c r="C120" s="168"/>
+      <c r="D120" s="168" t="s">
+        <v>739</v>
+      </c>
+      <c r="E120" s="168"/>
+      <c r="F120" s="168">
+        <v>55</v>
+      </c>
+      <c r="G120" s="168">
+        <v>9</v>
+      </c>
+      <c r="H120" s="168">
+        <v>5</v>
+      </c>
+      <c r="I120" s="168"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B121" s="168">
+        <v>61</v>
+      </c>
+      <c r="C121" s="168"/>
+      <c r="D121" s="168" t="s">
+        <v>880</v>
+      </c>
+      <c r="E121" s="168"/>
+      <c r="F121" s="168">
+        <v>55</v>
+      </c>
+      <c r="G121" s="168">
+        <v>12</v>
+      </c>
+      <c r="H121" s="168">
+        <v>6</v>
+      </c>
+      <c r="I121" s="168"/>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B122" s="168">
+        <v>62</v>
+      </c>
+      <c r="C122" s="168">
+        <v>3</v>
+      </c>
+      <c r="D122" s="168" t="s">
+        <v>865</v>
+      </c>
+      <c r="E122" s="168">
+        <v>1</v>
+      </c>
+      <c r="F122" s="168"/>
+      <c r="G122" s="168"/>
+      <c r="H122" s="168">
+        <v>6</v>
+      </c>
+      <c r="I122" s="168"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B123" s="168">
+        <v>63</v>
+      </c>
+      <c r="C123" s="168"/>
+      <c r="D123" s="168" t="s">
+        <v>866</v>
+      </c>
+      <c r="E123" s="168"/>
+      <c r="F123" s="168">
+        <v>62</v>
+      </c>
+      <c r="G123" s="168">
+        <v>31</v>
+      </c>
+      <c r="H123" s="168">
+        <v>1</v>
+      </c>
+      <c r="I123" s="168"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B124" s="168">
+        <v>64</v>
+      </c>
+      <c r="C124" s="168"/>
+      <c r="D124" s="168" t="s">
+        <v>868</v>
+      </c>
+      <c r="E124" s="168"/>
+      <c r="F124" s="168">
+        <v>62</v>
+      </c>
+      <c r="G124" s="168">
+        <v>30</v>
+      </c>
+      <c r="H124" s="168">
+        <v>7</v>
+      </c>
+      <c r="I124" s="168"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B125" s="168">
+        <v>65</v>
+      </c>
+      <c r="C125" s="168">
+        <v>4</v>
+      </c>
+      <c r="D125" s="168" t="s">
+        <v>881</v>
+      </c>
+      <c r="E125" s="168"/>
+      <c r="F125" s="168"/>
+      <c r="G125" s="168">
+        <v>1</v>
+      </c>
+      <c r="H125" s="168">
+        <v>1</v>
+      </c>
+      <c r="I125" s="168"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B126" s="168">
+        <v>66</v>
+      </c>
+      <c r="C126" s="168">
+        <v>4</v>
+      </c>
+      <c r="D126" s="168" t="s">
+        <v>2</v>
+      </c>
+      <c r="E126" s="168">
+        <v>1</v>
+      </c>
+      <c r="F126" s="168"/>
+      <c r="G126" s="168"/>
+      <c r="H126" s="168">
+        <v>2</v>
+      </c>
+      <c r="I126" s="168"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B127" s="168">
+        <v>67</v>
+      </c>
+      <c r="C127" s="168"/>
+      <c r="D127" s="168" t="s">
+        <v>882</v>
+      </c>
+      <c r="E127" s="168"/>
+      <c r="F127" s="168">
+        <v>66</v>
+      </c>
+      <c r="G127" s="168">
+        <v>3</v>
+      </c>
+      <c r="H127" s="168">
+        <v>1</v>
+      </c>
+      <c r="I127" s="168"/>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B128" s="168">
+        <v>68</v>
+      </c>
+      <c r="C128" s="168"/>
+      <c r="D128" s="168" t="s">
+        <v>2</v>
+      </c>
+      <c r="E128" s="168"/>
+      <c r="F128" s="168">
+        <v>66</v>
+      </c>
+      <c r="G128" s="168">
+        <v>11</v>
+      </c>
+      <c r="H128" s="168">
+        <v>2</v>
+      </c>
+      <c r="I128" s="168"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B129" s="168">
+        <v>69</v>
+      </c>
+      <c r="C129" s="168"/>
+      <c r="D129" s="168" t="s">
+        <v>750</v>
+      </c>
+      <c r="E129" s="168"/>
+      <c r="F129" s="168">
+        <v>66</v>
+      </c>
+      <c r="G129" s="168">
+        <v>18</v>
+      </c>
+      <c r="H129" s="168">
+        <v>3</v>
+      </c>
+      <c r="I129" s="168"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B130" s="168">
+        <v>70</v>
+      </c>
+      <c r="C130" s="168">
+        <v>4</v>
+      </c>
+      <c r="D130" s="168" t="s">
+        <v>654</v>
+      </c>
+      <c r="E130" s="168">
+        <v>1</v>
+      </c>
+      <c r="F130" s="168"/>
+      <c r="G130" s="168"/>
+      <c r="H130" s="168">
+        <v>3</v>
+      </c>
+      <c r="I130" s="168"/>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B131" s="168">
+        <v>71</v>
+      </c>
+      <c r="C131" s="168"/>
+      <c r="D131" s="168" t="s">
+        <v>808</v>
+      </c>
+      <c r="E131" s="168"/>
+      <c r="F131" s="168">
+        <v>70</v>
+      </c>
+      <c r="G131" s="168">
+        <v>6</v>
+      </c>
+      <c r="H131" s="168">
+        <v>1</v>
+      </c>
+      <c r="I131" s="168"/>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B132" s="168">
+        <v>72</v>
+      </c>
+      <c r="C132" s="168"/>
+      <c r="D132" s="168" t="s">
+        <v>23</v>
+      </c>
+      <c r="E132" s="168"/>
+      <c r="F132" s="168">
+        <v>70</v>
+      </c>
+      <c r="G132" s="168">
+        <v>4</v>
+      </c>
+      <c r="H132" s="168">
+        <v>2</v>
+      </c>
+      <c r="I132" s="168"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B133" s="168">
+        <v>73</v>
+      </c>
+      <c r="C133" s="168"/>
+      <c r="D133" s="168" t="s">
+        <v>21</v>
+      </c>
+      <c r="E133" s="168"/>
+      <c r="F133" s="168">
+        <v>70</v>
+      </c>
+      <c r="G133" s="168">
+        <v>5</v>
+      </c>
+      <c r="H133" s="168">
+        <v>3</v>
+      </c>
+      <c r="I133" s="168"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B134" s="168">
+        <v>74</v>
+      </c>
+      <c r="C134" s="168"/>
+      <c r="D134" s="168" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="168"/>
+      <c r="F134" s="168">
+        <v>70</v>
+      </c>
+      <c r="G134" s="168">
+        <v>7</v>
+      </c>
+      <c r="H134" s="168">
+        <v>4</v>
+      </c>
+      <c r="I134" s="168"/>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B135" s="168">
+        <v>75</v>
+      </c>
+      <c r="C135" s="168">
+        <v>4</v>
+      </c>
+      <c r="D135" s="168" t="s">
+        <v>874</v>
+      </c>
+      <c r="E135" s="168">
+        <v>1</v>
+      </c>
+      <c r="F135" s="168"/>
+      <c r="G135" s="168"/>
+      <c r="H135" s="168">
+        <v>4</v>
+      </c>
+      <c r="I135" s="168"/>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B136" s="168">
+        <v>76</v>
+      </c>
+      <c r="C136" s="168"/>
+      <c r="D136" s="168" t="s">
+        <v>664</v>
+      </c>
+      <c r="E136" s="168"/>
+      <c r="F136" s="168">
+        <v>75</v>
+      </c>
+      <c r="G136" s="168">
+        <v>8</v>
+      </c>
+      <c r="H136" s="168">
+        <v>1</v>
+      </c>
+      <c r="I136" s="168"/>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B137" s="168">
+        <v>77</v>
+      </c>
+      <c r="C137" s="168"/>
+      <c r="D137" s="168" t="s">
+        <v>666</v>
+      </c>
+      <c r="E137" s="168"/>
+      <c r="F137" s="168">
+        <v>75</v>
+      </c>
+      <c r="G137" s="168">
+        <v>15</v>
+      </c>
+      <c r="H137" s="168">
+        <v>2</v>
+      </c>
+      <c r="I137" s="168"/>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B138" s="168">
+        <v>78</v>
+      </c>
+      <c r="C138" s="168"/>
+      <c r="D138" s="168" t="s">
+        <v>17</v>
+      </c>
+      <c r="E138" s="168"/>
+      <c r="F138" s="168">
+        <v>75</v>
+      </c>
+      <c r="G138" s="168">
+        <v>10</v>
+      </c>
+      <c r="H138" s="168">
+        <v>3</v>
+      </c>
+      <c r="I138" s="168"/>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B139" s="168">
+        <v>79</v>
+      </c>
+      <c r="C139" s="168">
+        <v>4</v>
+      </c>
+      <c r="D139" s="168" t="s">
+        <v>883</v>
+      </c>
+      <c r="E139" s="168">
+        <v>1</v>
+      </c>
+      <c r="F139" s="168"/>
+      <c r="G139" s="168"/>
+      <c r="H139" s="168">
+        <v>5</v>
+      </c>
+      <c r="I139" s="168"/>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B140" s="168">
+        <v>80</v>
+      </c>
+      <c r="C140" s="168"/>
+      <c r="D140" s="168" t="s">
+        <v>878</v>
+      </c>
+      <c r="E140" s="168"/>
+      <c r="F140" s="168">
+        <v>79</v>
+      </c>
+      <c r="G140" s="168">
+        <v>14</v>
+      </c>
+      <c r="H140" s="168">
+        <v>1</v>
+      </c>
+      <c r="I140" s="168"/>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B141" s="168">
+        <v>81</v>
+      </c>
+      <c r="C141" s="168"/>
+      <c r="D141" s="168" t="s">
+        <v>876</v>
+      </c>
+      <c r="E141" s="168"/>
+      <c r="F141" s="168">
+        <v>79</v>
+      </c>
+      <c r="G141" s="168">
+        <v>13</v>
+      </c>
+      <c r="H141" s="168">
+        <v>2</v>
+      </c>
+      <c r="I141" s="168"/>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B142" s="168">
+        <v>82</v>
+      </c>
+      <c r="C142" s="168"/>
+      <c r="D142" s="168" t="s">
+        <v>877</v>
+      </c>
+      <c r="E142" s="168"/>
+      <c r="F142" s="168">
+        <v>79</v>
+      </c>
+      <c r="G142" s="168">
+        <v>2</v>
+      </c>
+      <c r="H142" s="168">
+        <v>3</v>
+      </c>
+      <c r="I142" s="168"/>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B143" s="168">
+        <v>83</v>
+      </c>
+      <c r="C143" s="168"/>
+      <c r="D143" s="168" t="s">
+        <v>879</v>
+      </c>
+      <c r="E143" s="168"/>
+      <c r="F143" s="168">
+        <v>79</v>
+      </c>
+      <c r="G143" s="168">
+        <v>29</v>
+      </c>
+      <c r="H143" s="168">
+        <v>4</v>
+      </c>
+      <c r="I143" s="168"/>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B144" s="168">
+        <v>84</v>
+      </c>
+      <c r="C144" s="168"/>
+      <c r="D144" s="168" t="s">
+        <v>739</v>
+      </c>
+      <c r="E144" s="168"/>
+      <c r="F144" s="168">
+        <v>79</v>
+      </c>
+      <c r="G144" s="168">
+        <v>9</v>
+      </c>
+      <c r="H144" s="168">
+        <v>5</v>
+      </c>
+      <c r="I144" s="168"/>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B145" s="168">
+        <v>85</v>
+      </c>
+      <c r="C145" s="168">
+        <v>4</v>
+      </c>
+      <c r="D145" s="168" t="s">
+        <v>869</v>
+      </c>
+      <c r="E145" s="168">
+        <v>1</v>
+      </c>
+      <c r="F145" s="168"/>
+      <c r="G145" s="168"/>
+      <c r="H145" s="168">
+        <v>6</v>
+      </c>
+      <c r="I145" s="168"/>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B146" s="168">
+        <v>86</v>
+      </c>
+      <c r="C146" s="168"/>
+      <c r="D146" s="168" t="s">
+        <v>870</v>
+      </c>
+      <c r="E146" s="168"/>
+      <c r="F146" s="168">
+        <v>85</v>
+      </c>
+      <c r="G146" s="168">
+        <v>16</v>
+      </c>
+      <c r="H146" s="168">
+        <v>1</v>
+      </c>
+      <c r="I146" s="168"/>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B147" s="168">
+        <v>87</v>
+      </c>
+      <c r="C147" s="168"/>
+      <c r="D147" s="168" t="s">
+        <v>871</v>
+      </c>
+      <c r="E147" s="168"/>
+      <c r="F147" s="168">
+        <v>85</v>
+      </c>
+      <c r="G147" s="168">
+        <v>17</v>
+      </c>
+      <c r="H147" s="168">
+        <v>2</v>
+      </c>
+      <c r="I147" s="168"/>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B148" s="168"/>
+      <c r="C148" s="168"/>
+      <c r="D148" s="168"/>
+      <c r="E148" s="168"/>
+      <c r="F148" s="168"/>
+      <c r="G148" s="168"/>
+      <c r="H148" s="168"/>
+      <c r="I148" s="168"/>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B149" s="168">
+        <v>100</v>
+      </c>
+      <c r="C149" s="168">
+        <v>2</v>
+      </c>
+      <c r="D149" s="168" t="s">
+        <v>897</v>
+      </c>
+      <c r="E149" s="168"/>
+      <c r="F149" s="168"/>
+      <c r="G149" s="168">
+        <v>32</v>
+      </c>
+      <c r="H149" s="168">
+        <v>7</v>
+      </c>
+      <c r="I149" s="168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B150" s="168">
+        <v>101</v>
+      </c>
+      <c r="C150" s="168">
+        <v>2</v>
+      </c>
+      <c r="D150" s="168" t="s">
+        <v>771</v>
+      </c>
+      <c r="E150" s="168"/>
+      <c r="F150" s="168"/>
+      <c r="G150" s="168">
+        <v>19</v>
+      </c>
+      <c r="H150" s="168">
+        <v>8</v>
+      </c>
+      <c r="I150" s="168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B151" s="168">
+        <v>102</v>
+      </c>
+      <c r="C151" s="168">
+        <v>2</v>
+      </c>
+      <c r="D151" s="168" t="s">
+        <v>774</v>
+      </c>
+      <c r="E151" s="168"/>
+      <c r="F151" s="168"/>
+      <c r="G151" s="168">
+        <v>20</v>
+      </c>
+      <c r="H151" s="168">
+        <v>9</v>
+      </c>
+      <c r="I151" s="168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B152" s="168">
+        <v>103</v>
+      </c>
+      <c r="C152" s="168">
+        <v>2</v>
+      </c>
+      <c r="D152" s="168" t="s">
+        <v>791</v>
+      </c>
+      <c r="E152" s="168"/>
+      <c r="F152" s="168"/>
+      <c r="G152" s="168">
+        <v>21</v>
+      </c>
+      <c r="H152" s="168">
+        <v>10</v>
+      </c>
+      <c r="I152" s="168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B153" s="168">
+        <v>104</v>
+      </c>
+      <c r="C153" s="168">
+        <v>2</v>
+      </c>
+      <c r="D153" s="168" t="s">
+        <v>38</v>
+      </c>
+      <c r="E153" s="168"/>
+      <c r="F153" s="168"/>
+      <c r="G153" s="168">
+        <v>22</v>
+      </c>
+      <c r="H153" s="168">
+        <v>11</v>
+      </c>
+      <c r="I153" s="168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B154" s="168">
+        <v>105</v>
+      </c>
+      <c r="C154" s="168">
+        <v>2</v>
+      </c>
+      <c r="D154" s="168" t="s">
+        <v>790</v>
+      </c>
+      <c r="E154" s="168"/>
+      <c r="F154" s="168"/>
+      <c r="G154" s="168">
+        <v>23</v>
+      </c>
+      <c r="H154" s="168">
+        <v>12</v>
+      </c>
+      <c r="I154" s="168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B155" s="168">
+        <v>106</v>
+      </c>
+      <c r="C155" s="168">
+        <v>2</v>
+      </c>
+      <c r="D155" s="168" t="s">
+        <v>789</v>
+      </c>
+      <c r="E155" s="168"/>
+      <c r="F155" s="168"/>
+      <c r="G155" s="168">
+        <v>24</v>
+      </c>
+      <c r="H155" s="168">
+        <v>13</v>
+      </c>
+      <c r="I155" s="168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B156" s="168">
+        <v>107</v>
+      </c>
+      <c r="C156" s="168">
+        <v>2</v>
+      </c>
+      <c r="D156" s="168" t="s">
+        <v>788</v>
+      </c>
+      <c r="E156" s="168"/>
+      <c r="F156" s="168"/>
+      <c r="G156" s="168">
+        <v>25</v>
+      </c>
+      <c r="H156" s="168">
+        <v>14</v>
+      </c>
+      <c r="I156" s="168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B157" s="168">
+        <v>108</v>
+      </c>
+      <c r="C157" s="168">
+        <v>2</v>
+      </c>
+      <c r="D157" s="168" t="s">
+        <v>741</v>
+      </c>
+      <c r="E157" s="168"/>
+      <c r="F157" s="168"/>
+      <c r="G157" s="168">
+        <v>26</v>
+      </c>
+      <c r="H157" s="168">
+        <v>15</v>
+      </c>
+      <c r="I157" s="168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B158" s="168">
+        <v>109</v>
+      </c>
+      <c r="C158" s="168">
+        <v>2</v>
+      </c>
+      <c r="D158" s="168" t="s">
+        <v>787</v>
+      </c>
+      <c r="E158" s="168"/>
+      <c r="F158" s="168"/>
+      <c r="G158" s="168">
+        <v>27</v>
+      </c>
+      <c r="H158" s="168">
+        <v>16</v>
+      </c>
+      <c r="I158" s="168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B159" s="168">
+        <v>110</v>
+      </c>
+      <c r="C159" s="168">
+        <v>2</v>
+      </c>
+      <c r="D159" s="168" t="s">
+        <v>786</v>
+      </c>
+      <c r="E159" s="168"/>
+      <c r="F159" s="168"/>
+      <c r="G159" s="168">
+        <v>28</v>
+      </c>
+      <c r="H159" s="168">
+        <v>17</v>
+      </c>
+      <c r="I159" s="168">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B60:H147" xr:uid="{B2987336-834C-4EB5-9029-918D900A334B}"/>
+  <phoneticPr fontId="31" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView topLeftCell="A79" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23487,7 +26644,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G7" s="23">
         <v>0</v>
@@ -23531,7 +26688,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G10" s="23">
         <v>1</v>
@@ -23557,7 +26714,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G11" s="25">
         <v>1</v>
@@ -23583,7 +26740,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G12" s="25">
         <v>1</v>
@@ -24822,16 +27979,16 @@
         <v>5</v>
       </c>
       <c r="E75" t="s">
+        <v>907</v>
+      </c>
+      <c r="F75" t="s">
         <v>908</v>
       </c>
-      <c r="F75" t="s">
-        <v>909</v>
-      </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="83" spans="3:9" x14ac:dyDescent="0.2">
@@ -24842,10 +27999,10 @@
         <v>10</v>
       </c>
       <c r="E83" s="165" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F83" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -24859,10 +28016,10 @@
         <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F84" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -24876,10 +28033,10 @@
         <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F85" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G85">
         <v>3</v>
@@ -24893,10 +28050,10 @@
         <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F86" s="165" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G86">
         <v>4</v>
@@ -24910,10 +28067,10 @@
         <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F87" s="165" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G87">
         <v>5</v>
@@ -24927,10 +28084,10 @@
         <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F88" s="165" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G88">
         <v>6</v>
@@ -24944,10 +28101,10 @@
         <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F89" s="165" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G89">
         <v>7</v>
@@ -24961,10 +28118,10 @@
         <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F90" s="165" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G90">
         <v>8</v>
@@ -24978,10 +28135,10 @@
         <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F91" s="165" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G91">
         <v>9</v>
@@ -24995,10 +28152,10 @@
         <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F92" s="165" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G92">
         <v>10</v>
@@ -25012,13 +28169,13 @@
         <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F95" t="s">
-        <v>923</v>
-      </c>
-      <c r="I95" s="189" t="s">
-        <v>929</v>
+        <v>922</v>
+      </c>
+      <c r="I95" s="170" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="96" spans="3:9" x14ac:dyDescent="0.2">
@@ -25029,12 +28186,12 @@
         <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F96" t="s">
-        <v>924</v>
-      </c>
-      <c r="I96" s="188">
+        <v>923</v>
+      </c>
+      <c r="I96" s="169">
         <v>0.77083333333333337</v>
       </c>
     </row>
@@ -25046,13 +28203,13 @@
         <v>12</v>
       </c>
       <c r="E97" t="s">
+        <v>927</v>
+      </c>
+      <c r="F97" t="s">
+        <v>922</v>
+      </c>
+      <c r="I97" s="170" t="s">
         <v>928</v>
-      </c>
-      <c r="F97" t="s">
-        <v>923</v>
-      </c>
-      <c r="I97" s="189" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="98" spans="3:9" x14ac:dyDescent="0.2">
@@ -25063,3141 +28220,17 @@
         <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F98" t="s">
-        <v>924</v>
-      </c>
-      <c r="I98" s="188">
+        <v>923</v>
+      </c>
+      <c r="I98" s="169">
         <v>0.77083333333333337</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="29" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF12AF46-9F25-4499-9F6C-A9732178A698}">
-  <dimension ref="B1:J159"/>
-  <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="5.5" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="5.375" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
-    <col min="6" max="6" width="36.875" customWidth="1"/>
-    <col min="7" max="7" width="22.25" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="16.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>703</v>
-      </c>
-      <c r="D1" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="163" t="s">
-        <v>704</v>
-      </c>
-      <c r="C2" s="163" t="s">
-        <v>705</v>
-      </c>
-      <c r="D2" s="163" t="s">
-        <v>706</v>
-      </c>
-      <c r="E2" s="163" t="s">
-        <v>707</v>
-      </c>
-      <c r="F2" s="163" t="s">
-        <v>708</v>
-      </c>
-      <c r="G2" s="164" t="s">
-        <v>728</v>
-      </c>
-      <c r="H2" s="164" t="s">
-        <v>729</v>
-      </c>
-      <c r="I2" s="164" t="s">
-        <v>730</v>
-      </c>
-      <c r="J2" s="164" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="66">
-        <v>1</v>
-      </c>
-      <c r="C3" s="165" t="s">
-        <v>731</v>
-      </c>
-      <c r="D3" s="66">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>709</v>
-      </c>
-      <c r="G3" t="s">
-        <v>752</v>
-      </c>
-      <c r="H3" t="s">
-        <v>751</v>
-      </c>
-      <c r="I3" t="s">
-        <v>753</v>
-      </c>
-      <c r="J3" s="165" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="66">
-        <v>2</v>
-      </c>
-      <c r="C4" s="165" t="s">
-        <v>732</v>
-      </c>
-      <c r="D4" s="66">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>711</v>
-      </c>
-      <c r="G4" t="s">
-        <v>752</v>
-      </c>
-      <c r="H4" t="s">
-        <v>751</v>
-      </c>
-      <c r="I4" t="s">
-        <v>754</v>
-      </c>
-      <c r="J4" s="165" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="66">
-        <v>3</v>
-      </c>
-      <c r="C5" s="166" t="s">
-        <v>745</v>
-      </c>
-      <c r="D5" s="66">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>712</v>
-      </c>
-      <c r="G5" t="s">
-        <v>752</v>
-      </c>
-      <c r="H5" t="s">
-        <v>751</v>
-      </c>
-      <c r="I5" t="s">
-        <v>755</v>
-      </c>
-      <c r="J5" s="165" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="66">
-        <v>4</v>
-      </c>
-      <c r="C6" s="166" t="s">
-        <v>733</v>
-      </c>
-      <c r="D6" s="66">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>713</v>
-      </c>
-      <c r="G6" t="s">
-        <v>752</v>
-      </c>
-      <c r="H6" t="s">
-        <v>751</v>
-      </c>
-      <c r="I6" t="s">
-        <v>756</v>
-      </c>
-      <c r="J6" s="166" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="66">
-        <v>5</v>
-      </c>
-      <c r="C7" s="166" t="s">
-        <v>734</v>
-      </c>
-      <c r="D7" s="66">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>714</v>
-      </c>
-      <c r="G7" t="s">
-        <v>752</v>
-      </c>
-      <c r="H7" t="s">
-        <v>751</v>
-      </c>
-      <c r="I7" t="s">
-        <v>757</v>
-      </c>
-      <c r="J7" s="166" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="66">
-        <v>6</v>
-      </c>
-      <c r="C8" s="166" t="s">
-        <v>735</v>
-      </c>
-      <c r="D8" s="66">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>715</v>
-      </c>
-      <c r="G8" t="s">
-        <v>752</v>
-      </c>
-      <c r="H8" t="s">
-        <v>751</v>
-      </c>
-      <c r="I8" t="s">
-        <v>758</v>
-      </c>
-      <c r="J8" s="166" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="66">
-        <v>7</v>
-      </c>
-      <c r="C9" s="166" t="s">
-        <v>737</v>
-      </c>
-      <c r="D9" s="66">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>716</v>
-      </c>
-      <c r="G9" t="s">
-        <v>752</v>
-      </c>
-      <c r="H9" t="s">
-        <v>751</v>
-      </c>
-      <c r="I9" t="s">
-        <v>759</v>
-      </c>
-      <c r="J9" s="166" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="66">
-        <v>8</v>
-      </c>
-      <c r="C10" s="166" t="s">
-        <v>738</v>
-      </c>
-      <c r="D10" s="66">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>717</v>
-      </c>
-      <c r="G10" t="s">
-        <v>752</v>
-      </c>
-      <c r="H10" t="s">
-        <v>751</v>
-      </c>
-      <c r="I10" t="s">
-        <v>760</v>
-      </c>
-      <c r="J10" s="166" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="66">
-        <v>9</v>
-      </c>
-      <c r="C11" s="166" t="s">
-        <v>739</v>
-      </c>
-      <c r="D11" s="66">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>718</v>
-      </c>
-      <c r="G11" t="s">
-        <v>752</v>
-      </c>
-      <c r="H11" t="s">
-        <v>751</v>
-      </c>
-      <c r="I11" t="s">
-        <v>761</v>
-      </c>
-      <c r="J11" s="166" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="66">
-        <v>10</v>
-      </c>
-      <c r="C12" s="166" t="s">
-        <v>742</v>
-      </c>
-      <c r="D12" s="66">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>719</v>
-      </c>
-      <c r="G12" t="s">
-        <v>752</v>
-      </c>
-      <c r="H12" t="s">
-        <v>751</v>
-      </c>
-      <c r="I12" t="s">
-        <v>762</v>
-      </c>
-      <c r="J12" s="166" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="66">
-        <v>11</v>
-      </c>
-      <c r="C13" s="166" t="s">
-        <v>743</v>
-      </c>
-      <c r="D13" s="66">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>720</v>
-      </c>
-      <c r="G13" t="s">
-        <v>752</v>
-      </c>
-      <c r="H13" t="s">
-        <v>751</v>
-      </c>
-      <c r="I13" t="s">
-        <v>763</v>
-      </c>
-      <c r="J13" s="166" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="66">
-        <v>12</v>
-      </c>
-      <c r="C14" s="166" t="s">
-        <v>744</v>
-      </c>
-      <c r="D14" s="66">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>721</v>
-      </c>
-      <c r="G14" t="s">
-        <v>752</v>
-      </c>
-      <c r="H14" t="s">
-        <v>751</v>
-      </c>
-      <c r="I14" t="s">
-        <v>764</v>
-      </c>
-      <c r="J14" s="166" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="66">
-        <v>13</v>
-      </c>
-      <c r="C15" s="166" t="s">
-        <v>746</v>
-      </c>
-      <c r="D15" s="66">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>722</v>
-      </c>
-      <c r="G15" t="s">
-        <v>752</v>
-      </c>
-      <c r="H15" t="s">
-        <v>751</v>
-      </c>
-      <c r="I15" t="s">
-        <v>765</v>
-      </c>
-      <c r="J15" s="166" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="66">
-        <v>14</v>
-      </c>
-      <c r="C16" s="166" t="s">
-        <v>747</v>
-      </c>
-      <c r="D16" s="66">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>723</v>
-      </c>
-      <c r="G16" t="s">
-        <v>752</v>
-      </c>
-      <c r="H16" t="s">
-        <v>751</v>
-      </c>
-      <c r="I16" t="s">
-        <v>766</v>
-      </c>
-      <c r="J16" s="166" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="66">
-        <v>15</v>
-      </c>
-      <c r="C17" s="165" t="s">
-        <v>740</v>
-      </c>
-      <c r="D17" s="66">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>724</v>
-      </c>
-      <c r="G17" t="s">
-        <v>752</v>
-      </c>
-      <c r="H17" t="s">
-        <v>751</v>
-      </c>
-      <c r="I17" t="s">
-        <v>767</v>
-      </c>
-      <c r="J17" s="166" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="66">
-        <v>16</v>
-      </c>
-      <c r="C18" s="165" t="s">
-        <v>748</v>
-      </c>
-      <c r="D18" s="66">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>725</v>
-      </c>
-      <c r="G18" t="s">
-        <v>752</v>
-      </c>
-      <c r="H18" t="s">
-        <v>751</v>
-      </c>
-      <c r="I18" t="s">
-        <v>768</v>
-      </c>
-      <c r="J18" s="166" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="66">
-        <v>17</v>
-      </c>
-      <c r="C19" s="165" t="s">
-        <v>749</v>
-      </c>
-      <c r="D19" s="66">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>726</v>
-      </c>
-      <c r="G19" t="s">
-        <v>752</v>
-      </c>
-      <c r="H19" t="s">
-        <v>751</v>
-      </c>
-      <c r="I19" t="s">
-        <v>769</v>
-      </c>
-      <c r="J19" s="166" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="66">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>750</v>
-      </c>
-      <c r="D20" s="66">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>727</v>
-      </c>
-      <c r="G20" t="s">
-        <v>752</v>
-      </c>
-      <c r="H20" t="s">
-        <v>751</v>
-      </c>
-      <c r="I20" t="s">
-        <v>770</v>
-      </c>
-      <c r="J20" s="166" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="66">
-        <v>19</v>
-      </c>
-      <c r="C21" s="165" t="s">
-        <v>771</v>
-      </c>
-      <c r="D21" s="66">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>772</v>
-      </c>
-      <c r="F21" t="s">
-        <v>773</v>
-      </c>
-      <c r="H21" t="s">
-        <v>898</v>
-      </c>
-      <c r="J21" s="166" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="66">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>774</v>
-      </c>
-      <c r="D22" s="66">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>776</v>
-      </c>
-      <c r="F22" t="s">
-        <v>775</v>
-      </c>
-      <c r="H22" t="s">
-        <v>899</v>
-      </c>
-      <c r="J22" s="166" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="66">
-        <v>21</v>
-      </c>
-      <c r="C23" t="s">
-        <v>791</v>
-      </c>
-      <c r="D23" s="66">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>777</v>
-      </c>
-      <c r="F23" t="s">
-        <v>778</v>
-      </c>
-      <c r="H23" t="s">
-        <v>900</v>
-      </c>
-      <c r="J23" s="166" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="66">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="66">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>793</v>
-      </c>
-      <c r="F24" t="s">
-        <v>779</v>
-      </c>
-      <c r="H24" t="s">
-        <v>901</v>
-      </c>
-      <c r="J24" s="166" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="66">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
-        <v>790</v>
-      </c>
-      <c r="D25" s="66">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>792</v>
-      </c>
-      <c r="F25" t="s">
-        <v>780</v>
-      </c>
-      <c r="H25" t="s">
-        <v>901</v>
-      </c>
-      <c r="J25" s="166" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="66">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>789</v>
-      </c>
-      <c r="D26" s="66">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>794</v>
-      </c>
-      <c r="F26" t="s">
-        <v>781</v>
-      </c>
-      <c r="H26" t="s">
-        <v>902</v>
-      </c>
-      <c r="J26" s="166" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="66">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>788</v>
-      </c>
-      <c r="D27" s="66">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>795</v>
-      </c>
-      <c r="F27" t="s">
-        <v>782</v>
-      </c>
-      <c r="H27" t="s">
-        <v>899</v>
-      </c>
-      <c r="J27" s="166" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="66">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>741</v>
-      </c>
-      <c r="D28" s="66">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>796</v>
-      </c>
-      <c r="F28" t="s">
-        <v>783</v>
-      </c>
-      <c r="H28" t="s">
-        <v>899</v>
-      </c>
-      <c r="J28" s="166" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="66">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>787</v>
-      </c>
-      <c r="D29" s="66">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>797</v>
-      </c>
-      <c r="F29" t="s">
-        <v>784</v>
-      </c>
-      <c r="H29" t="s">
-        <v>900</v>
-      </c>
-      <c r="J29" s="166" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="66">
-        <v>28</v>
-      </c>
-      <c r="C30" t="s">
-        <v>786</v>
-      </c>
-      <c r="D30" s="66">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>798</v>
-      </c>
-      <c r="F30" t="s">
-        <v>785</v>
-      </c>
-      <c r="H30" t="s">
-        <v>900</v>
-      </c>
-      <c r="J30" s="166" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="66">
-        <v>29</v>
-      </c>
-      <c r="C31" s="165" t="s">
-        <v>827</v>
-      </c>
-      <c r="D31" s="66">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>828</v>
-      </c>
-      <c r="G31" t="s">
-        <v>752</v>
-      </c>
-      <c r="H31" t="s">
-        <v>751</v>
-      </c>
-      <c r="I31" t="s">
-        <v>829</v>
-      </c>
-      <c r="J31" s="166" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="66">
-        <v>30</v>
-      </c>
-      <c r="C32" s="165" t="s">
-        <v>830</v>
-      </c>
-      <c r="D32" s="66">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>831</v>
-      </c>
-      <c r="G32" t="s">
-        <v>752</v>
-      </c>
-      <c r="H32" t="s">
-        <v>751</v>
-      </c>
-      <c r="I32" t="s">
-        <v>832</v>
-      </c>
-      <c r="J32" s="166" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="66">
-        <v>31</v>
-      </c>
-      <c r="C33" s="165" t="s">
-        <v>867</v>
-      </c>
-      <c r="D33" s="66">
-        <v>0</v>
-      </c>
-      <c r="E33" s="165" t="s">
-        <v>884</v>
-      </c>
-      <c r="G33" t="s">
-        <v>752</v>
-      </c>
-      <c r="H33" t="s">
-        <v>751</v>
-      </c>
-      <c r="I33" s="165" t="s">
-        <v>886</v>
-      </c>
-      <c r="J33" s="166" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="66">
-        <v>32</v>
-      </c>
-      <c r="C34" s="165" t="s">
-        <v>896</v>
-      </c>
-      <c r="D34" s="66">
-        <v>1</v>
-      </c>
-      <c r="E34" s="165" t="s">
-        <v>903</v>
-      </c>
-      <c r="F34" t="s">
-        <v>904</v>
-      </c>
-      <c r="H34" t="s">
-        <v>905</v>
-      </c>
-      <c r="J34" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="66"/>
-      <c r="C35" s="165"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="165"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="66"/>
-      <c r="C36" s="165"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="165"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="66"/>
-      <c r="C37" s="165"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="165"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="165" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="163" t="s">
-        <v>812</v>
-      </c>
-      <c r="C39" s="163" t="s">
-        <v>815</v>
-      </c>
-      <c r="D39" s="163" t="s">
-        <v>816</v>
-      </c>
-      <c r="E39" s="163" t="s">
-        <v>803</v>
-      </c>
-      <c r="F39" s="167" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" s="165" t="s">
-        <v>820</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="C41" s="165" t="s">
-        <v>821</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42">
-        <v>3</v>
-      </c>
-      <c r="C42" s="166" t="s">
-        <v>822</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>3</v>
-      </c>
-      <c r="F42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B44" s="165" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="163" t="s">
-        <v>812</v>
-      </c>
-      <c r="C45" s="163" t="s">
-        <v>813</v>
-      </c>
-      <c r="D45" s="163" t="s">
-        <v>814</v>
-      </c>
-      <c r="E45" s="163" t="s">
-        <v>705</v>
-      </c>
-      <c r="F45" s="163" t="s">
-        <v>736</v>
-      </c>
-      <c r="G45" s="163" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46" s="165" t="s">
-        <v>817</v>
-      </c>
-      <c r="D46" s="165" t="s">
-        <v>817</v>
-      </c>
-      <c r="E46" s="165" t="s">
-        <v>818</v>
-      </c>
-      <c r="F46" s="165" t="s">
-        <v>819</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47">
-        <v>2</v>
-      </c>
-      <c r="C47" s="166" t="s">
-        <v>825</v>
-      </c>
-      <c r="D47" s="165" t="s">
-        <v>825</v>
-      </c>
-      <c r="E47" s="165" t="s">
-        <v>821</v>
-      </c>
-      <c r="F47" s="165"/>
-      <c r="G47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B48">
-        <v>3</v>
-      </c>
-      <c r="C48" s="166" t="s">
-        <v>826</v>
-      </c>
-      <c r="D48" s="166" t="s">
-        <v>826</v>
-      </c>
-      <c r="E48" s="166" t="s">
-        <v>822</v>
-      </c>
-      <c r="G48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="163" t="s">
-        <v>704</v>
-      </c>
-      <c r="C51" s="163" t="s">
-        <v>705</v>
-      </c>
-      <c r="D51" s="163" t="s">
-        <v>800</v>
-      </c>
-      <c r="E51" s="163" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>801</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53">
-        <v>2</v>
-      </c>
-      <c r="C53" s="165" t="s">
-        <v>823</v>
-      </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54">
-        <v>3</v>
-      </c>
-      <c r="C54" s="166" t="s">
-        <v>824</v>
-      </c>
-      <c r="D54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B55">
-        <v>4</v>
-      </c>
-      <c r="C55" s="166" t="s">
-        <v>863</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="163" t="s">
-        <v>704</v>
-      </c>
-      <c r="C60" s="163" t="s">
-        <v>803</v>
-      </c>
-      <c r="D60" s="163" t="s">
-        <v>705</v>
-      </c>
-      <c r="E60" s="163" t="s">
-        <v>804</v>
-      </c>
-      <c r="F60" s="163" t="s">
-        <v>805</v>
-      </c>
-      <c r="G60" s="163" t="s">
-        <v>806</v>
-      </c>
-      <c r="H60" s="163" t="s">
-        <v>807</v>
-      </c>
-      <c r="I60" s="164" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B61" s="168">
-        <v>1</v>
-      </c>
-      <c r="C61" s="168">
-        <v>1</v>
-      </c>
-      <c r="D61" s="168" t="s">
-        <v>2</v>
-      </c>
-      <c r="E61" s="168">
-        <v>1</v>
-      </c>
-      <c r="F61" s="168"/>
-      <c r="G61" s="168"/>
-      <c r="H61" s="168">
-        <v>1</v>
-      </c>
-      <c r="I61" s="168"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B62" s="168">
-        <v>2</v>
-      </c>
-      <c r="C62" s="168"/>
-      <c r="D62" s="168" t="s">
-        <v>38</v>
-      </c>
-      <c r="E62" s="168"/>
-      <c r="F62" s="168">
-        <v>1</v>
-      </c>
-      <c r="G62" s="168">
-        <v>3</v>
-      </c>
-      <c r="H62" s="168">
-        <v>1</v>
-      </c>
-      <c r="I62" s="168"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="168">
-        <v>3</v>
-      </c>
-      <c r="C63" s="168"/>
-      <c r="D63" s="168" t="s">
-        <v>872</v>
-      </c>
-      <c r="E63" s="168"/>
-      <c r="F63" s="168">
-        <v>1</v>
-      </c>
-      <c r="G63" s="168">
-        <v>11</v>
-      </c>
-      <c r="H63" s="168">
-        <v>2</v>
-      </c>
-      <c r="I63" s="168"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B64" s="168">
-        <v>4</v>
-      </c>
-      <c r="C64" s="168">
-        <v>1</v>
-      </c>
-      <c r="D64" s="168" t="s">
-        <v>654</v>
-      </c>
-      <c r="E64" s="168">
-        <v>1</v>
-      </c>
-      <c r="F64" s="168"/>
-      <c r="G64" s="168"/>
-      <c r="H64" s="168">
-        <v>2</v>
-      </c>
-      <c r="I64" s="168"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B65" s="168">
-        <v>5</v>
-      </c>
-      <c r="C65" s="168"/>
-      <c r="D65" s="168" t="s">
-        <v>808</v>
-      </c>
-      <c r="E65" s="168"/>
-      <c r="F65" s="168">
-        <v>4</v>
-      </c>
-      <c r="G65" s="168">
-        <v>6</v>
-      </c>
-      <c r="H65" s="168">
-        <v>1</v>
-      </c>
-      <c r="I65" s="168"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B66" s="168">
-        <v>6</v>
-      </c>
-      <c r="C66" s="168"/>
-      <c r="D66" s="168" t="s">
-        <v>23</v>
-      </c>
-      <c r="E66" s="168"/>
-      <c r="F66" s="168">
-        <v>4</v>
-      </c>
-      <c r="G66" s="168">
-        <v>4</v>
-      </c>
-      <c r="H66" s="168">
-        <v>2</v>
-      </c>
-      <c r="I66" s="168"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B67" s="168">
-        <v>7</v>
-      </c>
-      <c r="C67" s="168"/>
-      <c r="D67" s="168" t="s">
-        <v>21</v>
-      </c>
-      <c r="E67" s="168"/>
-      <c r="F67" s="168">
-        <v>4</v>
-      </c>
-      <c r="G67" s="168">
-        <v>5</v>
-      </c>
-      <c r="H67" s="168">
-        <v>3</v>
-      </c>
-      <c r="I67" s="168"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B68" s="168">
-        <v>8</v>
-      </c>
-      <c r="C68" s="168">
-        <v>1</v>
-      </c>
-      <c r="D68" s="168" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="168">
-        <v>1</v>
-      </c>
-      <c r="F68" s="168"/>
-      <c r="G68" s="168">
-        <v>7</v>
-      </c>
-      <c r="H68" s="168">
-        <v>3</v>
-      </c>
-      <c r="I68" s="168"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B69" s="168">
-        <v>9</v>
-      </c>
-      <c r="C69" s="168"/>
-      <c r="D69" s="168" t="s">
-        <v>451</v>
-      </c>
-      <c r="E69" s="168"/>
-      <c r="F69" s="168">
-        <v>8</v>
-      </c>
-      <c r="G69" s="168">
-        <v>7</v>
-      </c>
-      <c r="H69" s="168">
-        <v>1</v>
-      </c>
-      <c r="I69" s="168"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B70" s="168">
-        <v>10</v>
-      </c>
-      <c r="C70" s="168"/>
-      <c r="D70" s="168" t="s">
-        <v>873</v>
-      </c>
-      <c r="E70" s="168"/>
-      <c r="F70" s="168">
-        <v>8</v>
-      </c>
-      <c r="G70" s="168">
-        <v>10</v>
-      </c>
-      <c r="H70" s="168">
-        <v>2</v>
-      </c>
-      <c r="I70" s="168"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B71" s="168">
-        <v>11</v>
-      </c>
-      <c r="C71" s="168">
-        <v>1</v>
-      </c>
-      <c r="D71" s="168" t="s">
-        <v>874</v>
-      </c>
-      <c r="E71" s="168">
-        <v>1</v>
-      </c>
-      <c r="F71" s="168"/>
-      <c r="G71" s="168"/>
-      <c r="H71" s="168">
-        <v>4</v>
-      </c>
-      <c r="I71" s="168"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B72" s="168">
-        <v>12</v>
-      </c>
-      <c r="C72" s="168"/>
-      <c r="D72" s="168" t="s">
-        <v>741</v>
-      </c>
-      <c r="E72" s="168"/>
-      <c r="F72" s="168">
-        <v>11</v>
-      </c>
-      <c r="G72" s="168">
-        <v>15</v>
-      </c>
-      <c r="H72" s="168">
-        <v>1</v>
-      </c>
-      <c r="I72" s="168"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B73" s="168">
-        <v>13</v>
-      </c>
-      <c r="C73" s="168"/>
-      <c r="D73" s="168" t="s">
-        <v>40</v>
-      </c>
-      <c r="E73" s="168"/>
-      <c r="F73" s="168">
-        <v>11</v>
-      </c>
-      <c r="G73" s="168">
-        <v>16</v>
-      </c>
-      <c r="H73" s="168">
-        <v>2</v>
-      </c>
-      <c r="I73" s="168"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B74" s="168">
-        <v>14</v>
-      </c>
-      <c r="C74" s="168"/>
-      <c r="D74" s="168" t="s">
-        <v>871</v>
-      </c>
-      <c r="E74" s="168"/>
-      <c r="F74" s="168">
-        <v>11</v>
-      </c>
-      <c r="G74" s="168">
-        <v>17</v>
-      </c>
-      <c r="H74" s="168">
-        <v>3</v>
-      </c>
-      <c r="I74" s="168"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B75" s="168">
-        <v>15</v>
-      </c>
-      <c r="C75" s="168">
-        <v>1</v>
-      </c>
-      <c r="D75" s="168" t="s">
-        <v>875</v>
-      </c>
-      <c r="E75" s="168">
-        <v>1</v>
-      </c>
-      <c r="F75" s="168"/>
-      <c r="G75" s="168"/>
-      <c r="H75" s="168">
-        <v>5</v>
-      </c>
-      <c r="I75" s="168"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B76" s="168">
-        <v>16</v>
-      </c>
-      <c r="C76" s="168"/>
-      <c r="D76" s="168" t="s">
-        <v>876</v>
-      </c>
-      <c r="E76" s="168"/>
-      <c r="F76" s="168">
-        <v>15</v>
-      </c>
-      <c r="G76" s="168">
-        <v>13</v>
-      </c>
-      <c r="H76" s="168">
-        <v>1</v>
-      </c>
-      <c r="I76" s="168"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B77" s="168">
-        <v>17</v>
-      </c>
-      <c r="C77" s="168">
-        <v>2</v>
-      </c>
-      <c r="D77" s="168" t="s">
-        <v>2</v>
-      </c>
-      <c r="E77" s="168">
-        <v>1</v>
-      </c>
-      <c r="F77" s="168"/>
-      <c r="G77" s="168"/>
-      <c r="H77" s="168">
-        <v>1</v>
-      </c>
-      <c r="I77" s="168"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B78" s="168">
-        <v>18</v>
-      </c>
-      <c r="C78" s="168"/>
-      <c r="D78" s="168" t="s">
-        <v>38</v>
-      </c>
-      <c r="E78" s="168"/>
-      <c r="F78" s="168">
-        <v>17</v>
-      </c>
-      <c r="G78" s="168">
-        <v>3</v>
-      </c>
-      <c r="H78" s="168">
-        <v>1</v>
-      </c>
-      <c r="I78" s="168"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B79" s="168">
-        <v>19</v>
-      </c>
-      <c r="C79" s="168"/>
-      <c r="D79" s="168" t="s">
-        <v>872</v>
-      </c>
-      <c r="E79" s="168"/>
-      <c r="F79" s="168">
-        <v>17</v>
-      </c>
-      <c r="G79" s="168">
-        <v>11</v>
-      </c>
-      <c r="H79" s="168">
-        <v>2</v>
-      </c>
-      <c r="I79" s="168"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B80" s="168">
-        <v>20</v>
-      </c>
-      <c r="C80" s="168">
-        <v>2</v>
-      </c>
-      <c r="D80" s="168" t="s">
-        <v>654</v>
-      </c>
-      <c r="E80" s="168">
-        <v>1</v>
-      </c>
-      <c r="F80" s="168"/>
-      <c r="G80" s="168"/>
-      <c r="H80" s="168">
-        <v>2</v>
-      </c>
-      <c r="I80" s="168"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B81" s="168">
-        <v>21</v>
-      </c>
-      <c r="C81" s="168"/>
-      <c r="D81" s="168" t="s">
-        <v>808</v>
-      </c>
-      <c r="E81" s="168"/>
-      <c r="F81" s="168">
-        <v>20</v>
-      </c>
-      <c r="G81" s="168">
-        <v>6</v>
-      </c>
-      <c r="H81" s="168">
-        <v>1</v>
-      </c>
-      <c r="I81" s="168"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B82" s="168">
-        <v>22</v>
-      </c>
-      <c r="C82" s="168"/>
-      <c r="D82" s="168" t="s">
-        <v>23</v>
-      </c>
-      <c r="E82" s="168"/>
-      <c r="F82" s="168">
-        <v>20</v>
-      </c>
-      <c r="G82" s="168">
-        <v>4</v>
-      </c>
-      <c r="H82" s="168">
-        <v>2</v>
-      </c>
-      <c r="I82" s="168"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B83" s="168">
-        <v>23</v>
-      </c>
-      <c r="C83" s="168"/>
-      <c r="D83" s="168" t="s">
-        <v>21</v>
-      </c>
-      <c r="E83" s="168"/>
-      <c r="F83" s="168">
-        <v>20</v>
-      </c>
-      <c r="G83" s="168">
-        <v>5</v>
-      </c>
-      <c r="H83" s="168">
-        <v>3</v>
-      </c>
-      <c r="I83" s="168"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B84" s="168">
-        <v>24</v>
-      </c>
-      <c r="C84" s="168">
-        <v>2</v>
-      </c>
-      <c r="D84" s="168" t="s">
-        <v>17</v>
-      </c>
-      <c r="E84" s="168">
-        <v>1</v>
-      </c>
-      <c r="F84" s="168"/>
-      <c r="G84" s="168"/>
-      <c r="H84" s="168">
-        <v>3</v>
-      </c>
-      <c r="I84" s="168"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B85" s="168">
-        <v>25</v>
-      </c>
-      <c r="C85" s="168"/>
-      <c r="D85" s="168" t="s">
-        <v>451</v>
-      </c>
-      <c r="E85" s="168"/>
-      <c r="F85" s="168">
-        <v>24</v>
-      </c>
-      <c r="G85" s="168">
-        <v>7</v>
-      </c>
-      <c r="H85" s="168">
-        <v>1</v>
-      </c>
-      <c r="I85" s="168"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B86" s="168">
-        <v>26</v>
-      </c>
-      <c r="C86" s="168"/>
-      <c r="D86" s="168" t="s">
-        <v>873</v>
-      </c>
-      <c r="E86" s="168"/>
-      <c r="F86" s="168">
-        <v>24</v>
-      </c>
-      <c r="G86" s="168">
-        <v>10</v>
-      </c>
-      <c r="H86" s="168">
-        <v>2</v>
-      </c>
-      <c r="I86" s="168"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B87" s="168">
-        <v>27</v>
-      </c>
-      <c r="C87" s="168">
-        <v>2</v>
-      </c>
-      <c r="D87" s="168" t="s">
-        <v>874</v>
-      </c>
-      <c r="E87" s="168">
-        <v>1</v>
-      </c>
-      <c r="F87" s="168"/>
-      <c r="G87" s="168"/>
-      <c r="H87" s="168">
-        <v>4</v>
-      </c>
-      <c r="I87" s="168"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B88" s="168">
-        <v>28</v>
-      </c>
-      <c r="C88" s="168"/>
-      <c r="D88" s="168" t="s">
-        <v>741</v>
-      </c>
-      <c r="E88" s="168"/>
-      <c r="F88" s="168">
-        <v>27</v>
-      </c>
-      <c r="G88" s="168">
-        <v>15</v>
-      </c>
-      <c r="H88" s="168">
-        <v>1</v>
-      </c>
-      <c r="I88" s="168"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B89" s="168">
-        <v>29</v>
-      </c>
-      <c r="C89" s="168"/>
-      <c r="D89" s="168" t="s">
-        <v>40</v>
-      </c>
-      <c r="E89" s="168"/>
-      <c r="F89" s="168">
-        <v>27</v>
-      </c>
-      <c r="G89" s="168">
-        <v>16</v>
-      </c>
-      <c r="H89" s="168">
-        <v>2</v>
-      </c>
-      <c r="I89" s="168"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B90" s="168">
-        <v>30</v>
-      </c>
-      <c r="C90" s="168"/>
-      <c r="D90" s="168" t="s">
-        <v>871</v>
-      </c>
-      <c r="E90" s="168"/>
-      <c r="F90" s="168">
-        <v>27</v>
-      </c>
-      <c r="G90" s="168">
-        <v>17</v>
-      </c>
-      <c r="H90" s="168">
-        <v>3</v>
-      </c>
-      <c r="I90" s="168"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B91" s="168">
-        <v>31</v>
-      </c>
-      <c r="C91" s="168">
-        <v>2</v>
-      </c>
-      <c r="D91" s="168" t="s">
-        <v>875</v>
-      </c>
-      <c r="E91" s="168">
-        <v>1</v>
-      </c>
-      <c r="F91" s="168"/>
-      <c r="G91" s="168"/>
-      <c r="H91" s="168">
-        <v>5</v>
-      </c>
-      <c r="I91" s="168"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B92" s="168">
-        <v>32</v>
-      </c>
-      <c r="C92" s="168"/>
-      <c r="D92" s="168" t="s">
-        <v>876</v>
-      </c>
-      <c r="E92" s="168"/>
-      <c r="F92" s="168">
-        <v>31</v>
-      </c>
-      <c r="G92" s="168">
-        <v>13</v>
-      </c>
-      <c r="H92" s="168">
-        <v>1</v>
-      </c>
-      <c r="I92" s="168"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B93" s="168">
-        <v>33</v>
-      </c>
-      <c r="C93" s="168"/>
-      <c r="D93" s="168" t="s">
-        <v>877</v>
-      </c>
-      <c r="E93" s="168"/>
-      <c r="F93" s="168">
-        <v>31</v>
-      </c>
-      <c r="G93" s="168">
-        <v>2</v>
-      </c>
-      <c r="H93" s="168">
-        <v>2</v>
-      </c>
-      <c r="I93" s="168"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B94" s="168">
-        <v>34</v>
-      </c>
-      <c r="C94" s="168"/>
-      <c r="D94" s="168" t="s">
-        <v>878</v>
-      </c>
-      <c r="E94" s="168"/>
-      <c r="F94" s="168">
-        <v>31</v>
-      </c>
-      <c r="G94" s="168">
-        <v>14</v>
-      </c>
-      <c r="H94" s="168">
-        <v>3</v>
-      </c>
-      <c r="I94" s="168"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B95" s="168">
-        <v>35</v>
-      </c>
-      <c r="C95" s="168"/>
-      <c r="D95" s="168" t="s">
-        <v>879</v>
-      </c>
-      <c r="E95" s="168"/>
-      <c r="F95" s="168">
-        <v>31</v>
-      </c>
-      <c r="G95" s="168">
-        <v>29</v>
-      </c>
-      <c r="H95" s="168">
-        <v>4</v>
-      </c>
-      <c r="I95" s="168"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B96" s="168">
-        <v>36</v>
-      </c>
-      <c r="C96" s="168"/>
-      <c r="D96" s="168" t="s">
-        <v>739</v>
-      </c>
-      <c r="E96" s="168"/>
-      <c r="F96" s="168">
-        <v>31</v>
-      </c>
-      <c r="G96" s="168">
-        <v>9</v>
-      </c>
-      <c r="H96" s="168">
-        <v>5</v>
-      </c>
-      <c r="I96" s="168"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B97" s="168">
-        <v>37</v>
-      </c>
-      <c r="C97" s="168"/>
-      <c r="D97" s="168" t="s">
-        <v>880</v>
-      </c>
-      <c r="E97" s="168"/>
-      <c r="F97" s="168">
-        <v>31</v>
-      </c>
-      <c r="G97" s="168">
-        <v>12</v>
-      </c>
-      <c r="H97" s="168">
-        <v>6</v>
-      </c>
-      <c r="I97" s="168"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B98" s="168">
-        <v>38</v>
-      </c>
-      <c r="C98" s="168">
-        <v>2</v>
-      </c>
-      <c r="D98" s="168" t="s">
-        <v>865</v>
-      </c>
-      <c r="E98" s="168">
-        <v>1</v>
-      </c>
-      <c r="F98" s="168"/>
-      <c r="G98" s="168"/>
-      <c r="H98" s="168">
-        <v>6</v>
-      </c>
-      <c r="I98" s="168"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B99" s="168">
-        <v>39</v>
-      </c>
-      <c r="C99" s="168"/>
-      <c r="D99" s="168" t="s">
-        <v>866</v>
-      </c>
-      <c r="E99" s="168"/>
-      <c r="F99" s="168">
-        <v>38</v>
-      </c>
-      <c r="G99" s="168">
-        <v>31</v>
-      </c>
-      <c r="H99" s="168">
-        <v>1</v>
-      </c>
-      <c r="I99" s="168"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B100" s="168">
-        <v>40</v>
-      </c>
-      <c r="C100" s="168"/>
-      <c r="D100" s="168" t="s">
-        <v>868</v>
-      </c>
-      <c r="E100" s="168"/>
-      <c r="F100" s="168">
-        <v>38</v>
-      </c>
-      <c r="G100" s="168">
-        <v>30</v>
-      </c>
-      <c r="H100" s="168">
-        <v>2</v>
-      </c>
-      <c r="I100" s="168"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B101" s="168">
-        <v>41</v>
-      </c>
-      <c r="C101" s="168">
-        <v>3</v>
-      </c>
-      <c r="D101" s="168" t="s">
-        <v>2</v>
-      </c>
-      <c r="E101" s="168">
-        <v>1</v>
-      </c>
-      <c r="F101" s="168"/>
-      <c r="G101" s="168"/>
-      <c r="H101" s="168">
-        <v>1</v>
-      </c>
-      <c r="I101" s="168"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B102" s="168">
-        <v>42</v>
-      </c>
-      <c r="C102" s="168"/>
-      <c r="D102" s="168" t="s">
-        <v>38</v>
-      </c>
-      <c r="E102" s="168"/>
-      <c r="F102" s="168">
-        <v>41</v>
-      </c>
-      <c r="G102" s="168">
-        <v>3</v>
-      </c>
-      <c r="H102" s="168">
-        <v>1</v>
-      </c>
-      <c r="I102" s="168"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B103" s="168">
-        <v>43</v>
-      </c>
-      <c r="C103" s="168"/>
-      <c r="D103" s="168" t="s">
-        <v>872</v>
-      </c>
-      <c r="E103" s="168"/>
-      <c r="F103" s="168">
-        <v>41</v>
-      </c>
-      <c r="G103" s="168">
-        <v>11</v>
-      </c>
-      <c r="H103" s="168">
-        <v>2</v>
-      </c>
-      <c r="I103" s="168"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B104" s="168">
-        <v>44</v>
-      </c>
-      <c r="C104" s="168">
-        <v>3</v>
-      </c>
-      <c r="D104" s="168" t="s">
-        <v>654</v>
-      </c>
-      <c r="E104" s="168">
-        <v>1</v>
-      </c>
-      <c r="F104" s="168"/>
-      <c r="G104" s="168"/>
-      <c r="H104" s="168">
-        <v>2</v>
-      </c>
-      <c r="I104" s="168"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B105" s="168">
-        <v>45</v>
-      </c>
-      <c r="C105" s="168"/>
-      <c r="D105" s="168" t="s">
-        <v>808</v>
-      </c>
-      <c r="E105" s="168"/>
-      <c r="F105" s="168">
-        <v>44</v>
-      </c>
-      <c r="G105" s="168">
-        <v>6</v>
-      </c>
-      <c r="H105" s="168">
-        <v>1</v>
-      </c>
-      <c r="I105" s="168"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B106" s="168">
-        <v>46</v>
-      </c>
-      <c r="C106" s="168"/>
-      <c r="D106" s="168" t="s">
-        <v>23</v>
-      </c>
-      <c r="E106" s="168"/>
-      <c r="F106" s="168">
-        <v>44</v>
-      </c>
-      <c r="G106" s="168">
-        <v>4</v>
-      </c>
-      <c r="H106" s="168">
-        <v>2</v>
-      </c>
-      <c r="I106" s="168"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B107" s="168">
-        <v>47</v>
-      </c>
-      <c r="C107" s="168"/>
-      <c r="D107" s="168" t="s">
-        <v>21</v>
-      </c>
-      <c r="E107" s="168"/>
-      <c r="F107" s="168">
-        <v>44</v>
-      </c>
-      <c r="G107" s="168">
-        <v>5</v>
-      </c>
-      <c r="H107" s="168">
-        <v>3</v>
-      </c>
-      <c r="I107" s="168"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B108" s="168">
-        <v>48</v>
-      </c>
-      <c r="C108" s="168">
-        <v>3</v>
-      </c>
-      <c r="D108" s="168" t="s">
-        <v>17</v>
-      </c>
-      <c r="E108" s="168">
-        <v>1</v>
-      </c>
-      <c r="F108" s="168"/>
-      <c r="G108" s="168"/>
-      <c r="H108" s="168">
-        <v>3</v>
-      </c>
-      <c r="I108" s="168"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B109" s="168">
-        <v>49</v>
-      </c>
-      <c r="C109" s="168"/>
-      <c r="D109" s="168" t="s">
-        <v>451</v>
-      </c>
-      <c r="E109" s="168"/>
-      <c r="F109" s="168">
-        <v>48</v>
-      </c>
-      <c r="G109" s="168">
-        <v>7</v>
-      </c>
-      <c r="H109" s="168">
-        <v>1</v>
-      </c>
-      <c r="I109" s="168"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B110" s="168">
-        <v>50</v>
-      </c>
-      <c r="C110" s="168"/>
-      <c r="D110" s="168" t="s">
-        <v>873</v>
-      </c>
-      <c r="E110" s="168"/>
-      <c r="F110" s="168">
-        <v>48</v>
-      </c>
-      <c r="G110" s="168">
-        <v>10</v>
-      </c>
-      <c r="H110" s="168">
-        <v>2</v>
-      </c>
-      <c r="I110" s="168"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B111" s="168">
-        <v>51</v>
-      </c>
-      <c r="C111" s="168">
-        <v>3</v>
-      </c>
-      <c r="D111" s="168" t="s">
-        <v>874</v>
-      </c>
-      <c r="E111" s="168">
-        <v>1</v>
-      </c>
-      <c r="F111" s="168"/>
-      <c r="G111" s="168"/>
-      <c r="H111" s="168">
-        <v>4</v>
-      </c>
-      <c r="I111" s="168"/>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B112" s="168">
-        <v>52</v>
-      </c>
-      <c r="C112" s="168"/>
-      <c r="D112" s="168" t="s">
-        <v>741</v>
-      </c>
-      <c r="E112" s="168"/>
-      <c r="F112" s="168">
-        <v>51</v>
-      </c>
-      <c r="G112" s="168">
-        <v>15</v>
-      </c>
-      <c r="H112" s="168">
-        <v>1</v>
-      </c>
-      <c r="I112" s="168"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B113" s="168">
-        <v>53</v>
-      </c>
-      <c r="C113" s="168"/>
-      <c r="D113" s="168" t="s">
-        <v>40</v>
-      </c>
-      <c r="E113" s="168"/>
-      <c r="F113" s="168">
-        <v>51</v>
-      </c>
-      <c r="G113" s="168">
-        <v>16</v>
-      </c>
-      <c r="H113" s="168">
-        <v>2</v>
-      </c>
-      <c r="I113" s="168"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B114" s="168">
-        <v>54</v>
-      </c>
-      <c r="C114" s="168"/>
-      <c r="D114" s="168" t="s">
-        <v>871</v>
-      </c>
-      <c r="E114" s="168"/>
-      <c r="F114" s="168">
-        <v>51</v>
-      </c>
-      <c r="G114" s="168">
-        <v>17</v>
-      </c>
-      <c r="H114" s="168">
-        <v>3</v>
-      </c>
-      <c r="I114" s="168"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B115" s="168">
-        <v>55</v>
-      </c>
-      <c r="C115" s="168">
-        <v>3</v>
-      </c>
-      <c r="D115" s="168" t="s">
-        <v>875</v>
-      </c>
-      <c r="E115" s="168">
-        <v>1</v>
-      </c>
-      <c r="F115" s="168"/>
-      <c r="G115" s="168"/>
-      <c r="H115" s="168">
-        <v>5</v>
-      </c>
-      <c r="I115" s="168"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B116" s="168">
-        <v>56</v>
-      </c>
-      <c r="C116" s="168"/>
-      <c r="D116" s="168" t="s">
-        <v>876</v>
-      </c>
-      <c r="E116" s="168"/>
-      <c r="F116" s="168">
-        <v>55</v>
-      </c>
-      <c r="G116" s="168">
-        <v>13</v>
-      </c>
-      <c r="H116" s="168">
-        <v>1</v>
-      </c>
-      <c r="I116" s="168"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B117" s="168">
-        <v>57</v>
-      </c>
-      <c r="C117" s="168"/>
-      <c r="D117" s="168" t="s">
-        <v>877</v>
-      </c>
-      <c r="E117" s="168"/>
-      <c r="F117" s="168">
-        <v>55</v>
-      </c>
-      <c r="G117" s="168">
-        <v>2</v>
-      </c>
-      <c r="H117" s="168">
-        <v>2</v>
-      </c>
-      <c r="I117" s="168"/>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B118" s="168">
-        <v>58</v>
-      </c>
-      <c r="C118" s="168"/>
-      <c r="D118" s="168" t="s">
-        <v>878</v>
-      </c>
-      <c r="E118" s="168"/>
-      <c r="F118" s="168">
-        <v>55</v>
-      </c>
-      <c r="G118" s="168">
-        <v>14</v>
-      </c>
-      <c r="H118" s="168">
-        <v>3</v>
-      </c>
-      <c r="I118" s="168"/>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B119" s="168">
-        <v>59</v>
-      </c>
-      <c r="C119" s="168"/>
-      <c r="D119" s="168" t="s">
-        <v>879</v>
-      </c>
-      <c r="E119" s="168"/>
-      <c r="F119" s="168">
-        <v>55</v>
-      </c>
-      <c r="G119" s="168">
-        <v>29</v>
-      </c>
-      <c r="H119" s="168">
-        <v>4</v>
-      </c>
-      <c r="I119" s="168"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B120" s="168">
-        <v>60</v>
-      </c>
-      <c r="C120" s="168"/>
-      <c r="D120" s="168" t="s">
-        <v>739</v>
-      </c>
-      <c r="E120" s="168"/>
-      <c r="F120" s="168">
-        <v>55</v>
-      </c>
-      <c r="G120" s="168">
-        <v>9</v>
-      </c>
-      <c r="H120" s="168">
-        <v>5</v>
-      </c>
-      <c r="I120" s="168"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B121" s="168">
-        <v>61</v>
-      </c>
-      <c r="C121" s="168"/>
-      <c r="D121" s="168" t="s">
-        <v>880</v>
-      </c>
-      <c r="E121" s="168"/>
-      <c r="F121" s="168">
-        <v>55</v>
-      </c>
-      <c r="G121" s="168">
-        <v>12</v>
-      </c>
-      <c r="H121" s="168">
-        <v>6</v>
-      </c>
-      <c r="I121" s="168"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B122" s="168">
-        <v>62</v>
-      </c>
-      <c r="C122" s="168">
-        <v>3</v>
-      </c>
-      <c r="D122" s="168" t="s">
-        <v>865</v>
-      </c>
-      <c r="E122" s="168">
-        <v>1</v>
-      </c>
-      <c r="F122" s="168"/>
-      <c r="G122" s="168"/>
-      <c r="H122" s="168">
-        <v>6</v>
-      </c>
-      <c r="I122" s="168"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B123" s="168">
-        <v>63</v>
-      </c>
-      <c r="C123" s="168"/>
-      <c r="D123" s="168" t="s">
-        <v>866</v>
-      </c>
-      <c r="E123" s="168"/>
-      <c r="F123" s="168">
-        <v>62</v>
-      </c>
-      <c r="G123" s="168">
-        <v>31</v>
-      </c>
-      <c r="H123" s="168">
-        <v>1</v>
-      </c>
-      <c r="I123" s="168"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B124" s="168">
-        <v>64</v>
-      </c>
-      <c r="C124" s="168"/>
-      <c r="D124" s="168" t="s">
-        <v>868</v>
-      </c>
-      <c r="E124" s="168"/>
-      <c r="F124" s="168">
-        <v>62</v>
-      </c>
-      <c r="G124" s="168">
-        <v>30</v>
-      </c>
-      <c r="H124" s="168">
-        <v>7</v>
-      </c>
-      <c r="I124" s="168"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B125" s="168">
-        <v>65</v>
-      </c>
-      <c r="C125" s="168">
-        <v>4</v>
-      </c>
-      <c r="D125" s="168" t="s">
-        <v>881</v>
-      </c>
-      <c r="E125" s="168"/>
-      <c r="F125" s="168"/>
-      <c r="G125" s="168">
-        <v>1</v>
-      </c>
-      <c r="H125" s="168">
-        <v>1</v>
-      </c>
-      <c r="I125" s="168"/>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B126" s="168">
-        <v>66</v>
-      </c>
-      <c r="C126" s="168">
-        <v>4</v>
-      </c>
-      <c r="D126" s="168" t="s">
-        <v>2</v>
-      </c>
-      <c r="E126" s="168">
-        <v>1</v>
-      </c>
-      <c r="F126" s="168"/>
-      <c r="G126" s="168"/>
-      <c r="H126" s="168">
-        <v>2</v>
-      </c>
-      <c r="I126" s="168"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B127" s="168">
-        <v>67</v>
-      </c>
-      <c r="C127" s="168"/>
-      <c r="D127" s="168" t="s">
-        <v>882</v>
-      </c>
-      <c r="E127" s="168"/>
-      <c r="F127" s="168">
-        <v>66</v>
-      </c>
-      <c r="G127" s="168">
-        <v>3</v>
-      </c>
-      <c r="H127" s="168">
-        <v>1</v>
-      </c>
-      <c r="I127" s="168"/>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B128" s="168">
-        <v>68</v>
-      </c>
-      <c r="C128" s="168"/>
-      <c r="D128" s="168" t="s">
-        <v>2</v>
-      </c>
-      <c r="E128" s="168"/>
-      <c r="F128" s="168">
-        <v>66</v>
-      </c>
-      <c r="G128" s="168">
-        <v>11</v>
-      </c>
-      <c r="H128" s="168">
-        <v>2</v>
-      </c>
-      <c r="I128" s="168"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B129" s="168">
-        <v>69</v>
-      </c>
-      <c r="C129" s="168"/>
-      <c r="D129" s="168" t="s">
-        <v>750</v>
-      </c>
-      <c r="E129" s="168"/>
-      <c r="F129" s="168">
-        <v>66</v>
-      </c>
-      <c r="G129" s="168">
-        <v>18</v>
-      </c>
-      <c r="H129" s="168">
-        <v>3</v>
-      </c>
-      <c r="I129" s="168"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B130" s="168">
-        <v>70</v>
-      </c>
-      <c r="C130" s="168">
-        <v>4</v>
-      </c>
-      <c r="D130" s="168" t="s">
-        <v>654</v>
-      </c>
-      <c r="E130" s="168">
-        <v>1</v>
-      </c>
-      <c r="F130" s="168"/>
-      <c r="G130" s="168"/>
-      <c r="H130" s="168">
-        <v>3</v>
-      </c>
-      <c r="I130" s="168"/>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B131" s="168">
-        <v>71</v>
-      </c>
-      <c r="C131" s="168"/>
-      <c r="D131" s="168" t="s">
-        <v>808</v>
-      </c>
-      <c r="E131" s="168"/>
-      <c r="F131" s="168">
-        <v>70</v>
-      </c>
-      <c r="G131" s="168">
-        <v>6</v>
-      </c>
-      <c r="H131" s="168">
-        <v>1</v>
-      </c>
-      <c r="I131" s="168"/>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B132" s="168">
-        <v>72</v>
-      </c>
-      <c r="C132" s="168"/>
-      <c r="D132" s="168" t="s">
-        <v>23</v>
-      </c>
-      <c r="E132" s="168"/>
-      <c r="F132" s="168">
-        <v>70</v>
-      </c>
-      <c r="G132" s="168">
-        <v>4</v>
-      </c>
-      <c r="H132" s="168">
-        <v>2</v>
-      </c>
-      <c r="I132" s="168"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B133" s="168">
-        <v>73</v>
-      </c>
-      <c r="C133" s="168"/>
-      <c r="D133" s="168" t="s">
-        <v>21</v>
-      </c>
-      <c r="E133" s="168"/>
-      <c r="F133" s="168">
-        <v>70</v>
-      </c>
-      <c r="G133" s="168">
-        <v>5</v>
-      </c>
-      <c r="H133" s="168">
-        <v>3</v>
-      </c>
-      <c r="I133" s="168"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B134" s="168">
-        <v>74</v>
-      </c>
-      <c r="C134" s="168"/>
-      <c r="D134" s="168" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="168"/>
-      <c r="F134" s="168">
-        <v>70</v>
-      </c>
-      <c r="G134" s="168">
-        <v>7</v>
-      </c>
-      <c r="H134" s="168">
-        <v>4</v>
-      </c>
-      <c r="I134" s="168"/>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B135" s="168">
-        <v>75</v>
-      </c>
-      <c r="C135" s="168">
-        <v>4</v>
-      </c>
-      <c r="D135" s="168" t="s">
-        <v>874</v>
-      </c>
-      <c r="E135" s="168">
-        <v>1</v>
-      </c>
-      <c r="F135" s="168"/>
-      <c r="G135" s="168"/>
-      <c r="H135" s="168">
-        <v>4</v>
-      </c>
-      <c r="I135" s="168"/>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B136" s="168">
-        <v>76</v>
-      </c>
-      <c r="C136" s="168"/>
-      <c r="D136" s="168" t="s">
-        <v>664</v>
-      </c>
-      <c r="E136" s="168"/>
-      <c r="F136" s="168">
-        <v>75</v>
-      </c>
-      <c r="G136" s="168">
-        <v>8</v>
-      </c>
-      <c r="H136" s="168">
-        <v>1</v>
-      </c>
-      <c r="I136" s="168"/>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B137" s="168">
-        <v>77</v>
-      </c>
-      <c r="C137" s="168"/>
-      <c r="D137" s="168" t="s">
-        <v>666</v>
-      </c>
-      <c r="E137" s="168"/>
-      <c r="F137" s="168">
-        <v>75</v>
-      </c>
-      <c r="G137" s="168">
-        <v>15</v>
-      </c>
-      <c r="H137" s="168">
-        <v>2</v>
-      </c>
-      <c r="I137" s="168"/>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B138" s="168">
-        <v>78</v>
-      </c>
-      <c r="C138" s="168"/>
-      <c r="D138" s="168" t="s">
-        <v>17</v>
-      </c>
-      <c r="E138" s="168"/>
-      <c r="F138" s="168">
-        <v>75</v>
-      </c>
-      <c r="G138" s="168">
-        <v>10</v>
-      </c>
-      <c r="H138" s="168">
-        <v>3</v>
-      </c>
-      <c r="I138" s="168"/>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B139" s="168">
-        <v>79</v>
-      </c>
-      <c r="C139" s="168">
-        <v>4</v>
-      </c>
-      <c r="D139" s="168" t="s">
-        <v>883</v>
-      </c>
-      <c r="E139" s="168">
-        <v>1</v>
-      </c>
-      <c r="F139" s="168"/>
-      <c r="G139" s="168"/>
-      <c r="H139" s="168">
-        <v>5</v>
-      </c>
-      <c r="I139" s="168"/>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B140" s="168">
-        <v>80</v>
-      </c>
-      <c r="C140" s="168"/>
-      <c r="D140" s="168" t="s">
-        <v>878</v>
-      </c>
-      <c r="E140" s="168"/>
-      <c r="F140" s="168">
-        <v>79</v>
-      </c>
-      <c r="G140" s="168">
-        <v>14</v>
-      </c>
-      <c r="H140" s="168">
-        <v>1</v>
-      </c>
-      <c r="I140" s="168"/>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B141" s="168">
-        <v>81</v>
-      </c>
-      <c r="C141" s="168"/>
-      <c r="D141" s="168" t="s">
-        <v>876</v>
-      </c>
-      <c r="E141" s="168"/>
-      <c r="F141" s="168">
-        <v>79</v>
-      </c>
-      <c r="G141" s="168">
-        <v>13</v>
-      </c>
-      <c r="H141" s="168">
-        <v>2</v>
-      </c>
-      <c r="I141" s="168"/>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B142" s="168">
-        <v>82</v>
-      </c>
-      <c r="C142" s="168"/>
-      <c r="D142" s="168" t="s">
-        <v>877</v>
-      </c>
-      <c r="E142" s="168"/>
-      <c r="F142" s="168">
-        <v>79</v>
-      </c>
-      <c r="G142" s="168">
-        <v>2</v>
-      </c>
-      <c r="H142" s="168">
-        <v>3</v>
-      </c>
-      <c r="I142" s="168"/>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B143" s="168">
-        <v>83</v>
-      </c>
-      <c r="C143" s="168"/>
-      <c r="D143" s="168" t="s">
-        <v>879</v>
-      </c>
-      <c r="E143" s="168"/>
-      <c r="F143" s="168">
-        <v>79</v>
-      </c>
-      <c r="G143" s="168">
-        <v>29</v>
-      </c>
-      <c r="H143" s="168">
-        <v>4</v>
-      </c>
-      <c r="I143" s="168"/>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B144" s="168">
-        <v>84</v>
-      </c>
-      <c r="C144" s="168"/>
-      <c r="D144" s="168" t="s">
-        <v>739</v>
-      </c>
-      <c r="E144" s="168"/>
-      <c r="F144" s="168">
-        <v>79</v>
-      </c>
-      <c r="G144" s="168">
-        <v>9</v>
-      </c>
-      <c r="H144" s="168">
-        <v>5</v>
-      </c>
-      <c r="I144" s="168"/>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B145" s="168">
-        <v>85</v>
-      </c>
-      <c r="C145" s="168">
-        <v>4</v>
-      </c>
-      <c r="D145" s="168" t="s">
-        <v>869</v>
-      </c>
-      <c r="E145" s="168">
-        <v>1</v>
-      </c>
-      <c r="F145" s="168"/>
-      <c r="G145" s="168"/>
-      <c r="H145" s="168">
-        <v>6</v>
-      </c>
-      <c r="I145" s="168"/>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B146" s="168">
-        <v>86</v>
-      </c>
-      <c r="C146" s="168"/>
-      <c r="D146" s="168" t="s">
-        <v>870</v>
-      </c>
-      <c r="E146" s="168"/>
-      <c r="F146" s="168">
-        <v>85</v>
-      </c>
-      <c r="G146" s="168">
-        <v>16</v>
-      </c>
-      <c r="H146" s="168">
-        <v>1</v>
-      </c>
-      <c r="I146" s="168"/>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B147" s="168">
-        <v>87</v>
-      </c>
-      <c r="C147" s="168"/>
-      <c r="D147" s="168" t="s">
-        <v>871</v>
-      </c>
-      <c r="E147" s="168"/>
-      <c r="F147" s="168">
-        <v>85</v>
-      </c>
-      <c r="G147" s="168">
-        <v>17</v>
-      </c>
-      <c r="H147" s="168">
-        <v>2</v>
-      </c>
-      <c r="I147" s="168"/>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B148" s="168"/>
-      <c r="C148" s="168"/>
-      <c r="D148" s="168"/>
-      <c r="E148" s="168"/>
-      <c r="F148" s="168"/>
-      <c r="G148" s="168"/>
-      <c r="H148" s="168"/>
-      <c r="I148" s="168"/>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B149" s="168">
-        <v>100</v>
-      </c>
-      <c r="C149" s="168">
-        <v>2</v>
-      </c>
-      <c r="D149" s="168" t="s">
-        <v>897</v>
-      </c>
-      <c r="E149" s="168"/>
-      <c r="F149" s="168"/>
-      <c r="G149" s="168">
-        <v>32</v>
-      </c>
-      <c r="H149" s="168">
-        <v>7</v>
-      </c>
-      <c r="I149" s="168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B150" s="168">
-        <v>101</v>
-      </c>
-      <c r="C150" s="168">
-        <v>2</v>
-      </c>
-      <c r="D150" s="168" t="s">
-        <v>771</v>
-      </c>
-      <c r="E150" s="168"/>
-      <c r="F150" s="168"/>
-      <c r="G150" s="168">
-        <v>19</v>
-      </c>
-      <c r="H150" s="168">
-        <v>8</v>
-      </c>
-      <c r="I150" s="168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B151" s="168">
-        <v>102</v>
-      </c>
-      <c r="C151" s="168">
-        <v>2</v>
-      </c>
-      <c r="D151" s="168" t="s">
-        <v>774</v>
-      </c>
-      <c r="E151" s="168"/>
-      <c r="F151" s="168"/>
-      <c r="G151" s="168">
-        <v>20</v>
-      </c>
-      <c r="H151" s="168">
-        <v>9</v>
-      </c>
-      <c r="I151" s="168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B152" s="168">
-        <v>103</v>
-      </c>
-      <c r="C152" s="168">
-        <v>2</v>
-      </c>
-      <c r="D152" s="168" t="s">
-        <v>791</v>
-      </c>
-      <c r="E152" s="168"/>
-      <c r="F152" s="168"/>
-      <c r="G152" s="168">
-        <v>21</v>
-      </c>
-      <c r="H152" s="168">
-        <v>10</v>
-      </c>
-      <c r="I152" s="168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B153" s="168">
-        <v>104</v>
-      </c>
-      <c r="C153" s="168">
-        <v>2</v>
-      </c>
-      <c r="D153" s="168" t="s">
-        <v>38</v>
-      </c>
-      <c r="E153" s="168"/>
-      <c r="F153" s="168"/>
-      <c r="G153" s="168">
-        <v>22</v>
-      </c>
-      <c r="H153" s="168">
-        <v>11</v>
-      </c>
-      <c r="I153" s="168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B154" s="168">
-        <v>105</v>
-      </c>
-      <c r="C154" s="168">
-        <v>2</v>
-      </c>
-      <c r="D154" s="168" t="s">
-        <v>790</v>
-      </c>
-      <c r="E154" s="168"/>
-      <c r="F154" s="168"/>
-      <c r="G154" s="168">
-        <v>23</v>
-      </c>
-      <c r="H154" s="168">
-        <v>12</v>
-      </c>
-      <c r="I154" s="168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B155" s="168">
-        <v>106</v>
-      </c>
-      <c r="C155" s="168">
-        <v>2</v>
-      </c>
-      <c r="D155" s="168" t="s">
-        <v>789</v>
-      </c>
-      <c r="E155" s="168"/>
-      <c r="F155" s="168"/>
-      <c r="G155" s="168">
-        <v>24</v>
-      </c>
-      <c r="H155" s="168">
-        <v>13</v>
-      </c>
-      <c r="I155" s="168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B156" s="168">
-        <v>107</v>
-      </c>
-      <c r="C156" s="168">
-        <v>2</v>
-      </c>
-      <c r="D156" s="168" t="s">
-        <v>788</v>
-      </c>
-      <c r="E156" s="168"/>
-      <c r="F156" s="168"/>
-      <c r="G156" s="168">
-        <v>25</v>
-      </c>
-      <c r="H156" s="168">
-        <v>14</v>
-      </c>
-      <c r="I156" s="168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B157" s="168">
-        <v>108</v>
-      </c>
-      <c r="C157" s="168">
-        <v>2</v>
-      </c>
-      <c r="D157" s="168" t="s">
-        <v>741</v>
-      </c>
-      <c r="E157" s="168"/>
-      <c r="F157" s="168"/>
-      <c r="G157" s="168">
-        <v>26</v>
-      </c>
-      <c r="H157" s="168">
-        <v>15</v>
-      </c>
-      <c r="I157" s="168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B158" s="168">
-        <v>109</v>
-      </c>
-      <c r="C158" s="168">
-        <v>2</v>
-      </c>
-      <c r="D158" s="168" t="s">
-        <v>787</v>
-      </c>
-      <c r="E158" s="168"/>
-      <c r="F158" s="168"/>
-      <c r="G158" s="168">
-        <v>27</v>
-      </c>
-      <c r="H158" s="168">
-        <v>16</v>
-      </c>
-      <c r="I158" s="168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B159" s="168">
-        <v>110</v>
-      </c>
-      <c r="C159" s="168">
-        <v>2</v>
-      </c>
-      <c r="D159" s="168" t="s">
-        <v>786</v>
-      </c>
-      <c r="E159" s="168"/>
-      <c r="F159" s="168"/>
-      <c r="G159" s="168">
-        <v>28</v>
-      </c>
-      <c r="H159" s="168">
-        <v>17</v>
-      </c>
-      <c r="I159" s="168">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="B60:H147" xr:uid="{B2987336-834C-4EB5-9029-918D900A334B}"/>
-  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -28538,7 +28571,7 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="169" t="s">
+      <c r="C3" s="171" t="s">
         <v>168</v>
       </c>
       <c r="D3" s="138" t="s">
@@ -28550,7 +28583,7 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="169"/>
+      <c r="C4" s="171"/>
       <c r="D4" s="138" t="s">
         <v>23</v>
       </c>
@@ -28560,7 +28593,7 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="169"/>
+      <c r="C5" s="171"/>
       <c r="D5" s="138" t="s">
         <v>21</v>
       </c>
@@ -28839,16 +28872,16 @@
       <c r="J5" s="140"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="177" t="s">
+      <c r="B6" s="178" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="183">
+      <c r="C6" s="172">
         <v>7</v>
       </c>
-      <c r="D6" s="183">
+      <c r="D6" s="172">
         <v>700</v>
       </c>
-      <c r="E6" s="183">
+      <c r="E6" s="172">
         <v>400</v>
       </c>
       <c r="F6" s="122">
@@ -28865,10 +28898,10 @@
       <c r="J6" s="141"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="178"/>
-      <c r="C7" s="184"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="184"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
       <c r="F7" s="122">
         <v>800</v>
       </c>
@@ -28883,10 +28916,10 @@
       <c r="J7" s="141"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="178"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
+      <c r="B8" s="179"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="173"/>
       <c r="F8" s="122">
         <v>900</v>
       </c>
@@ -28901,10 +28934,10 @@
       <c r="J8" s="141"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="179"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
       <c r="F9" s="122">
         <v>1200</v>
       </c>
@@ -28921,16 +28954,16 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="177" t="s">
+      <c r="B10" s="178" t="s">
         <v>191</v>
       </c>
-      <c r="C10" s="183">
+      <c r="C10" s="172">
         <v>7</v>
       </c>
-      <c r="D10" s="183">
+      <c r="D10" s="172">
         <v>900</v>
       </c>
-      <c r="E10" s="183">
+      <c r="E10" s="172">
         <v>500</v>
       </c>
       <c r="F10" s="122">
@@ -28947,10 +28980,10 @@
       <c r="J10" s="141"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="178"/>
-      <c r="C11" s="184"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="184"/>
+      <c r="B11" s="179"/>
+      <c r="C11" s="173"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="173"/>
       <c r="F11" s="122">
         <v>1200</v>
       </c>
@@ -28965,10 +28998,10 @@
       <c r="J11" s="141"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="180"/>
-      <c r="C12" s="186"/>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186"/>
+      <c r="B12" s="181"/>
+      <c r="C12" s="175"/>
+      <c r="D12" s="175"/>
+      <c r="E12" s="175"/>
       <c r="F12" s="125">
         <v>1600</v>
       </c>
@@ -28985,16 +29018,16 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="181" t="s">
+      <c r="B13" s="176" t="s">
         <v>194</v>
       </c>
-      <c r="C13" s="181">
+      <c r="C13" s="176">
         <v>10</v>
       </c>
-      <c r="D13" s="181">
+      <c r="D13" s="176">
         <v>700</v>
       </c>
-      <c r="E13" s="181">
+      <c r="E13" s="176">
         <v>250</v>
       </c>
       <c r="F13" s="128">
@@ -29011,10 +29044,10 @@
       <c r="J13" s="129"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="182"/>
-      <c r="C14" s="182"/>
-      <c r="D14" s="182"/>
-      <c r="E14" s="182"/>
+      <c r="B14" s="177"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="177"/>
       <c r="F14" s="22">
         <v>800</v>
       </c>
@@ -29030,10 +29063,10 @@
       <c r="K14"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="182"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="182"/>
+      <c r="B15" s="177"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="177"/>
       <c r="F15" s="22">
         <v>600</v>
       </c>
@@ -29252,7 +29285,7 @@
       <c r="E30" s="130"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="170" t="s">
+      <c r="A31" s="182" t="s">
         <v>182</v>
       </c>
       <c r="B31" s="131" t="s">
@@ -29267,7 +29300,7 @@
       <c r="I31" s="143"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="171"/>
+      <c r="A32" s="183"/>
       <c r="B32" s="21" t="s">
         <v>210</v>
       </c>
@@ -29280,7 +29313,7 @@
       <c r="I32" s="144"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="171"/>
+      <c r="A33" s="183"/>
       <c r="B33" s="21" t="s">
         <v>211</v>
       </c>
@@ -29293,7 +29326,7 @@
       <c r="I33" s="144"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="172"/>
+      <c r="A34" s="184"/>
       <c r="B34" s="135" t="s">
         <v>212</v>
       </c>
@@ -29318,7 +29351,7 @@
       <c r="E36" s="130"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="173" t="s">
+      <c r="A37" s="185" t="s">
         <v>184</v>
       </c>
       <c r="B37" s="21" t="s">
@@ -29334,7 +29367,7 @@
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="173"/>
+      <c r="A38" s="185"/>
       <c r="B38" s="138" t="s">
         <v>214</v>
       </c>
@@ -29348,7 +29381,7 @@
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="173"/>
+      <c r="A39" s="185"/>
       <c r="B39" s="21" t="s">
         <v>215</v>
       </c>
@@ -29362,7 +29395,7 @@
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="173"/>
+      <c r="A40" s="185"/>
       <c r="B40" s="21" t="s">
         <v>216</v>
       </c>
@@ -29388,7 +29421,7 @@
       <c r="E42" s="130"/>
     </row>
     <row r="43" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="174" t="s">
+      <c r="A43" s="186" t="s">
         <v>186</v>
       </c>
       <c r="B43" s="21" t="s">
@@ -29406,7 +29439,7 @@
       <c r="L43" s="5"/>
     </row>
     <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="175"/>
+      <c r="A44" s="187"/>
       <c r="B44" s="21" t="s">
         <v>218</v>
       </c>
@@ -29422,7 +29455,7 @@
       <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="175"/>
+      <c r="A45" s="187"/>
       <c r="B45" s="21" t="s">
         <v>219</v>
       </c>
@@ -29438,7 +29471,7 @@
       <c r="L45" s="5"/>
     </row>
     <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="175"/>
+      <c r="A46" s="187"/>
       <c r="B46" s="138" t="s">
         <v>220</v>
       </c>
@@ -29454,7 +29487,7 @@
       <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="175"/>
+      <c r="A47" s="187"/>
       <c r="B47" s="21" t="s">
         <v>221</v>
       </c>
@@ -29470,7 +29503,7 @@
       <c r="L47" s="5"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="175"/>
+      <c r="A48" s="187"/>
       <c r="B48" s="21" t="s">
         <v>222</v>
       </c>
@@ -29486,7 +29519,7 @@
       <c r="L48" s="5"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="176"/>
+      <c r="A49" s="188"/>
       <c r="B49" s="21" t="s">
         <v>216</v>
       </c>
@@ -29514,7 +29547,7 @@
       <c r="E51" s="130"/>
     </row>
     <row r="52" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="174" t="s">
+      <c r="A52" s="186" t="s">
         <v>191</v>
       </c>
       <c r="B52" s="21" t="s">
@@ -29532,7 +29565,7 @@
       <c r="L52" s="5"/>
     </row>
     <row r="53" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="175"/>
+      <c r="A53" s="187"/>
       <c r="B53" s="21" t="s">
         <v>224</v>
       </c>
@@ -29548,7 +29581,7 @@
       <c r="L53" s="5"/>
     </row>
     <row r="54" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="175"/>
+      <c r="A54" s="187"/>
       <c r="B54" s="21" t="s">
         <v>225</v>
       </c>
@@ -29564,7 +29597,7 @@
       <c r="L54" s="5"/>
     </row>
     <row r="55" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="175"/>
+      <c r="A55" s="187"/>
       <c r="B55" s="21" t="s">
         <v>226</v>
       </c>
@@ -29580,7 +29613,7 @@
       <c r="L55" s="5"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="175"/>
+      <c r="A56" s="187"/>
       <c r="B56" s="21" t="s">
         <v>227</v>
       </c>
@@ -29596,7 +29629,7 @@
       <c r="L56" s="5"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="176"/>
+      <c r="A57" s="188"/>
       <c r="B57" s="21" t="s">
         <v>216</v>
       </c>
@@ -29618,7 +29651,7 @@
       <c r="B59" s="90"/>
     </row>
     <row r="60" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="174" t="s">
+      <c r="A60" s="186" t="s">
         <v>194</v>
       </c>
       <c r="B60" s="21" t="s">
@@ -29634,7 +29667,7 @@
       <c r="J60" s="5"/>
     </row>
     <row r="61" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="175"/>
+      <c r="A61" s="187"/>
       <c r="B61" s="21" t="s">
         <v>229</v>
       </c>
@@ -29648,7 +29681,7 @@
       <c r="J61" s="5"/>
     </row>
     <row r="62" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="175"/>
+      <c r="A62" s="187"/>
       <c r="B62" s="21" t="s">
         <v>230</v>
       </c>
@@ -29662,7 +29695,7 @@
       <c r="J62" s="5"/>
     </row>
     <row r="63" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="175"/>
+      <c r="A63" s="187"/>
       <c r="B63" s="21" t="s">
         <v>231</v>
       </c>
@@ -29676,7 +29709,7 @@
       <c r="J63" s="5"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="175"/>
+      <c r="A64" s="187"/>
       <c r="B64" s="21" t="s">
         <v>232</v>
       </c>
@@ -29690,7 +29723,7 @@
       <c r="J64" s="5"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="176"/>
+      <c r="A65" s="188"/>
       <c r="B65" s="21" t="s">
         <v>212</v>
       </c>
@@ -31860,23 +31893,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="E13:E15"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="A60:A65"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
